--- a/config_1.19/shoping_config_xiaomi.xlsx
+++ b/config_1.19/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9388,7 +9388,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9533,7 +9533,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9615,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9693,7 +9697,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9773,7 +9779,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9853,7 +9861,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9933,7 +9943,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -10013,7 +10025,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -10093,7 +10107,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -10172,6 +10188,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -10252,7 +10271,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -11254,7 +11275,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11356,10 +11379,10 @@
   <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15212,7 +15235,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -15271,7 +15294,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15330,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15389,7 +15412,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15448,7 +15471,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16796,7 +16819,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18830,7 +18853,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18889,7 +18912,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -28192,7 +28215,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37627,7 +37650,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>

--- a/config_1.19/shoping_config_xiaomi.xlsx
+++ b/config_1.19/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8733,7 +8733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8800,6 +8800,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8843,7 +8849,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8991,9 +8997,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9035,6 +9038,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11490,11 +11505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN532"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U494" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H498" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A521" sqref="A521:XFD532"/>
+      <selection pane="bottomRight" activeCell="G507" sqref="G507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15336,298 +15351,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54">
+    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="53">
         <v>66</v>
       </c>
-      <c r="B67" s="54">
+      <c r="B67" s="53">
         <v>85</v>
       </c>
-      <c r="D67" s="54">
+      <c r="D67" s="53">
         <v>2</v>
       </c>
-      <c r="F67" s="54">
-        <v>1</v>
-      </c>
-      <c r="G67" s="54" t="s">
+      <c r="F67" s="53">
+        <v>1</v>
+      </c>
+      <c r="G67" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="54" t="s">
+      <c r="H67" s="53" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="54">
+      <c r="L67" s="53">
         <v>-4</v>
       </c>
-      <c r="M67" s="54">
-        <v>0</v>
-      </c>
-      <c r="N67" s="54">
-        <v>0</v>
-      </c>
-      <c r="O67" s="54" t="s">
+      <c r="M67" s="53">
+        <v>0</v>
+      </c>
+      <c r="N67" s="53">
+        <v>0</v>
+      </c>
+      <c r="O67" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="54">
+      <c r="P67" s="53">
         <v>1500</v>
       </c>
-      <c r="Q67" s="54" t="s">
+      <c r="Q67" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="54" t="s">
+      <c r="R67" s="53" t="s">
         <v>1362</v>
       </c>
-      <c r="W67" s="54" t="s">
+      <c r="W67" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="55" t="s">
+      <c r="X67" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="54">
+      <c r="Y67" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54">
+      <c r="AH67" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="53">
         <v>67</v>
       </c>
-      <c r="B68" s="54">
+      <c r="B68" s="53">
         <v>86</v>
       </c>
-      <c r="D68" s="54">
+      <c r="D68" s="53">
         <v>3</v>
       </c>
-      <c r="F68" s="54">
-        <v>1</v>
-      </c>
-      <c r="G68" s="54" t="s">
+      <c r="F68" s="53">
+        <v>1</v>
+      </c>
+      <c r="G68" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="H68" s="53" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="54">
+      <c r="L68" s="53">
         <v>-4</v>
       </c>
-      <c r="M68" s="54">
-        <v>0</v>
-      </c>
-      <c r="N68" s="54">
-        <v>0</v>
-      </c>
-      <c r="O68" s="54" t="s">
+      <c r="M68" s="53">
+        <v>0</v>
+      </c>
+      <c r="N68" s="53">
+        <v>0</v>
+      </c>
+      <c r="O68" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="54">
+      <c r="P68" s="53">
         <v>3000</v>
       </c>
-      <c r="Q68" s="54" t="s">
+      <c r="Q68" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="54" t="s">
+      <c r="R68" s="53" t="s">
         <v>1400</v>
       </c>
-      <c r="W68" s="54" t="s">
+      <c r="W68" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="55" t="s">
+      <c r="X68" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="54">
+      <c r="Y68" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54">
+      <c r="AH68" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="53">
         <v>68</v>
       </c>
-      <c r="B69" s="54">
+      <c r="B69" s="53">
         <v>87</v>
       </c>
-      <c r="D69" s="54">
+      <c r="D69" s="53">
         <v>4</v>
       </c>
-      <c r="F69" s="54">
-        <v>1</v>
-      </c>
-      <c r="G69" s="54" t="s">
+      <c r="F69" s="53">
+        <v>1</v>
+      </c>
+      <c r="G69" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="54" t="s">
+      <c r="H69" s="53" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="54">
+      <c r="L69" s="53">
         <v>-4</v>
       </c>
-      <c r="M69" s="54">
-        <v>0</v>
-      </c>
-      <c r="N69" s="54">
-        <v>0</v>
-      </c>
-      <c r="O69" s="54" t="s">
+      <c r="M69" s="53">
+        <v>0</v>
+      </c>
+      <c r="N69" s="53">
+        <v>0</v>
+      </c>
+      <c r="O69" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="54">
+      <c r="P69" s="53">
         <v>5000</v>
       </c>
-      <c r="Q69" s="54" t="s">
+      <c r="Q69" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="54" t="s">
+      <c r="R69" s="53" t="s">
         <v>1363</v>
       </c>
-      <c r="W69" s="54" t="s">
+      <c r="W69" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="55" t="s">
+      <c r="X69" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="54">
+      <c r="Y69" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54">
+      <c r="AH69" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="53">
         <v>69</v>
       </c>
-      <c r="B70" s="54">
+      <c r="B70" s="53">
         <v>88</v>
       </c>
-      <c r="D70" s="54">
+      <c r="D70" s="53">
         <v>5</v>
       </c>
-      <c r="F70" s="54">
-        <v>1</v>
-      </c>
-      <c r="G70" s="54" t="s">
+      <c r="F70" s="53">
+        <v>1</v>
+      </c>
+      <c r="G70" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="53" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="54">
+      <c r="L70" s="53">
         <v>-4</v>
       </c>
-      <c r="M70" s="54">
-        <v>0</v>
-      </c>
-      <c r="N70" s="54">
-        <v>0</v>
-      </c>
-      <c r="O70" s="54" t="s">
+      <c r="M70" s="53">
+        <v>0</v>
+      </c>
+      <c r="N70" s="53">
+        <v>0</v>
+      </c>
+      <c r="O70" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="54">
+      <c r="P70" s="53">
         <v>9800</v>
       </c>
-      <c r="Q70" s="54" t="s">
+      <c r="Q70" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="54" t="s">
+      <c r="R70" s="53" t="s">
         <v>1364</v>
       </c>
-      <c r="W70" s="54" t="s">
+      <c r="W70" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="55" t="s">
+      <c r="X70" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="54">
+      <c r="Y70" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54">
+      <c r="AH70" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="53">
         <v>70</v>
       </c>
-      <c r="B71" s="54">
+      <c r="B71" s="53">
         <v>89</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D71" s="53">
         <v>6</v>
       </c>
-      <c r="F71" s="54">
-        <v>1</v>
-      </c>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="53">
+        <v>1</v>
+      </c>
+      <c r="G71" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="54" t="s">
+      <c r="H71" s="53" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="54">
+      <c r="L71" s="53">
         <v>-4</v>
       </c>
-      <c r="M71" s="54">
-        <v>0</v>
-      </c>
-      <c r="N71" s="54">
-        <v>0</v>
-      </c>
-      <c r="O71" s="54" t="s">
+      <c r="M71" s="53">
+        <v>0</v>
+      </c>
+      <c r="N71" s="53">
+        <v>0</v>
+      </c>
+      <c r="O71" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="54">
+      <c r="P71" s="53">
         <v>49800</v>
       </c>
-      <c r="Q71" s="54" t="s">
+      <c r="Q71" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="54" t="s">
+      <c r="R71" s="53" t="s">
         <v>1365</v>
       </c>
-      <c r="W71" s="54" t="s">
+      <c r="W71" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="55" t="s">
+      <c r="X71" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="54">
+      <c r="Y71" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="54">
+      <c r="AH71" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="53">
         <v>1</v>
       </c>
     </row>
@@ -16923,56 +16938,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54">
+    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="53">
         <v>93</v>
       </c>
-      <c r="B94" s="54">
+      <c r="B94" s="53">
         <v>109</v>
       </c>
-      <c r="F94" s="54">
-        <v>1</v>
-      </c>
-      <c r="G94" s="54" t="s">
+      <c r="F94" s="53">
+        <v>1</v>
+      </c>
+      <c r="G94" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="54">
+      <c r="L94" s="53">
         <v>-4</v>
       </c>
-      <c r="M94" s="54">
-        <v>0</v>
-      </c>
-      <c r="N94" s="54">
-        <v>0</v>
-      </c>
-      <c r="O94" s="54" t="s">
+      <c r="M94" s="53">
+        <v>0</v>
+      </c>
+      <c r="N94" s="53">
+        <v>0</v>
+      </c>
+      <c r="O94" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="54">
+      <c r="P94" s="53">
         <v>100000</v>
       </c>
-      <c r="Q94" s="54" t="s">
+      <c r="Q94" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="54" t="s">
+      <c r="R94" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="54" t="s">
+      <c r="W94" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="55" t="s">
+      <c r="X94" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="54">
+      <c r="Y94" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="54">
+      <c r="AH94" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="53">
         <v>1</v>
       </c>
     </row>
@@ -18954,121 +18969,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54">
+    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="53">
         <v>127</v>
       </c>
-      <c r="B128" s="54">
+      <c r="B128" s="53">
         <v>10044</v>
       </c>
-      <c r="D128" s="54">
+      <c r="D128" s="53">
         <v>108</v>
       </c>
-      <c r="F128" s="54">
-        <v>1</v>
-      </c>
-      <c r="G128" s="54" t="s">
+      <c r="F128" s="53">
+        <v>1</v>
+      </c>
+      <c r="G128" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="54" t="s">
+      <c r="H128" s="53" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="54">
+      <c r="L128" s="53">
         <v>-10</v>
       </c>
-      <c r="M128" s="54">
-        <v>0</v>
-      </c>
-      <c r="N128" s="54">
-        <v>0</v>
-      </c>
-      <c r="O128" s="54" t="s">
+      <c r="M128" s="53">
+        <v>0</v>
+      </c>
+      <c r="N128" s="53">
+        <v>0</v>
+      </c>
+      <c r="O128" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="54">
+      <c r="P128" s="53">
         <v>99800</v>
       </c>
-      <c r="Q128" s="54" t="s">
+      <c r="Q128" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="54" t="s">
+      <c r="R128" s="53" t="s">
         <v>1367</v>
       </c>
-      <c r="W128" s="54" t="s">
+      <c r="W128" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="55" t="s">
+      <c r="X128" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="54">
+      <c r="Y128" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54">
+      <c r="AH128" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="53">
         <v>128</v>
       </c>
-      <c r="B129" s="54">
+      <c r="B129" s="53">
         <v>10045</v>
       </c>
-      <c r="D129" s="54">
+      <c r="D129" s="53">
         <v>110</v>
       </c>
-      <c r="F129" s="54">
-        <v>1</v>
-      </c>
-      <c r="G129" s="54" t="s">
+      <c r="F129" s="53">
+        <v>1</v>
+      </c>
+      <c r="G129" s="53" t="s">
         <v>1126</v>
       </c>
-      <c r="H129" s="54" t="s">
+      <c r="H129" s="53" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="54">
+      <c r="L129" s="53">
         <v>-11</v>
       </c>
-      <c r="M129" s="54">
-        <v>0</v>
-      </c>
-      <c r="N129" s="54">
-        <v>0</v>
-      </c>
-      <c r="O129" s="54" t="s">
+      <c r="M129" s="53">
+        <v>0</v>
+      </c>
+      <c r="N129" s="53">
+        <v>0</v>
+      </c>
+      <c r="O129" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="54">
+      <c r="P129" s="53">
         <v>249800</v>
       </c>
-      <c r="Q129" s="54" t="s">
+      <c r="Q129" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="54" t="s">
+      <c r="R129" s="53" t="s">
         <v>1366</v>
       </c>
-      <c r="W129" s="54" t="s">
+      <c r="W129" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="55" t="s">
+      <c r="X129" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="54">
+      <c r="Y129" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="54">
+      <c r="AH129" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="53">
         <v>1</v>
       </c>
     </row>
@@ -21676,7 +21691,7 @@
       <c r="Q171" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R171" s="53" t="s">
+      <c r="R171" s="52" t="s">
         <v>1722</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21744,7 +21759,7 @@
       <c r="Q172" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R172" s="53" t="s">
+      <c r="R172" s="52" t="s">
         <v>1725</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21812,7 +21827,7 @@
       <c r="Q173" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R173" s="53" t="s">
+      <c r="R173" s="52" t="s">
         <v>1728</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21880,7 +21895,7 @@
       <c r="Q174" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R174" s="53" t="s">
+      <c r="R174" s="52" t="s">
         <v>1731</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21948,7 +21963,7 @@
       <c r="Q175" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R175" s="53" t="s">
+      <c r="R175" s="52" t="s">
         <v>1735</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22016,7 +22031,7 @@
       <c r="Q176" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R176" s="53" t="s">
+      <c r="R176" s="52" t="s">
         <v>1738</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22084,7 +22099,7 @@
       <c r="Q177" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R177" s="53" t="s">
+      <c r="R177" s="52" t="s">
         <v>1741</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22152,7 +22167,7 @@
       <c r="Q178" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R178" s="53" t="s">
+      <c r="R178" s="52" t="s">
         <v>1744</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22220,7 +22235,7 @@
       <c r="Q179" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R179" s="53" t="s">
+      <c r="R179" s="52" t="s">
         <v>1747</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22288,7 +22303,7 @@
       <c r="Q180" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R180" s="53" t="s">
+      <c r="R180" s="52" t="s">
         <v>1744</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22356,7 +22371,7 @@
       <c r="Q181" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R181" s="53" t="s">
+      <c r="R181" s="52" t="s">
         <v>1747</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22424,7 +22439,7 @@
       <c r="Q182" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R182" s="53" t="s">
+      <c r="R182" s="52" t="s">
         <v>1752</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22492,7 +22507,7 @@
       <c r="Q183" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R183" s="53" t="s">
+      <c r="R183" s="52" t="s">
         <v>1747</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22560,7 +22575,7 @@
       <c r="Q184" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R184" s="53" t="s">
+      <c r="R184" s="52" t="s">
         <v>1752</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22628,7 +22643,7 @@
       <c r="Q185" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R185" s="53" t="s">
+      <c r="R185" s="52" t="s">
         <v>1757</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28316,62 +28331,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="54">
+    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="53">
         <v>272</v>
       </c>
-      <c r="B273" s="54">
+      <c r="B273" s="53">
         <v>10189</v>
       </c>
-      <c r="D273" s="57">
+      <c r="D273" s="56">
         <v>111</v>
       </c>
-      <c r="F273" s="54">
-        <v>1</v>
-      </c>
-      <c r="G273" s="54" t="s">
+      <c r="F273" s="53">
+        <v>1</v>
+      </c>
+      <c r="G273" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="58" t="s">
+      <c r="H273" s="57" t="s">
         <v>1865</v>
       </c>
-      <c r="L273" s="54">
+      <c r="L273" s="53">
         <v>-10</v>
       </c>
-      <c r="M273" s="54">
-        <v>0</v>
-      </c>
-      <c r="N273" s="54">
-        <v>0</v>
-      </c>
-      <c r="O273" s="54" t="s">
+      <c r="M273" s="53">
+        <v>0</v>
+      </c>
+      <c r="N273" s="53">
+        <v>0</v>
+      </c>
+      <c r="O273" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="54">
+      <c r="P273" s="53">
         <v>19800</v>
       </c>
-      <c r="Q273" s="54" t="s">
+      <c r="Q273" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="54" t="s">
+      <c r="R273" s="53" t="s">
         <v>1368</v>
       </c>
-      <c r="W273" s="54" t="s">
+      <c r="W273" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="55" t="s">
+      <c r="X273" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="54">
+      <c r="Y273" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="54">
+      <c r="AH273" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="53">
         <v>1</v>
       </c>
     </row>
@@ -31480,7 +31495,7 @@
       <c r="Q323" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R323" s="53" t="s">
+      <c r="R323" s="52" t="s">
         <v>1761</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31545,7 +31560,7 @@
       <c r="Q324" s="43" t="s">
         <v>1765</v>
       </c>
-      <c r="R324" s="53" t="s">
+      <c r="R324" s="52" t="s">
         <v>1766</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31610,7 +31625,7 @@
       <c r="Q325" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R325" s="53" t="s">
+      <c r="R325" s="52" t="s">
         <v>1769</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31802,7 +31817,7 @@
       <c r="Q328" s="43" t="s">
         <v>1642</v>
       </c>
-      <c r="R328" s="53" t="s">
+      <c r="R328" s="52" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -31885,7 +31900,7 @@
       <c r="Q329" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R329" s="53" t="s">
+      <c r="R329" s="52" t="s">
         <v>1646</v>
       </c>
       <c r="S329" s="43"/>
@@ -31968,7 +31983,7 @@
       <c r="Q330" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R330" s="53" t="s">
+      <c r="R330" s="52" t="s">
         <v>1649</v>
       </c>
       <c r="S330" s="43"/>
@@ -32051,7 +32066,7 @@
       <c r="Q331" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R331" s="53" t="s">
+      <c r="R331" s="52" t="s">
         <v>1651</v>
       </c>
       <c r="S331" s="43"/>
@@ -32134,7 +32149,7 @@
       <c r="Q332" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R332" s="53" t="s">
+      <c r="R332" s="52" t="s">
         <v>1653</v>
       </c>
       <c r="S332" s="43"/>
@@ -32217,7 +32232,7 @@
       <c r="Q333" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R333" s="53" t="s">
+      <c r="R333" s="52" t="s">
         <v>1654</v>
       </c>
       <c r="S333" s="43"/>
@@ -32300,7 +32315,7 @@
       <c r="Q334" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R334" s="53" t="s">
+      <c r="R334" s="52" t="s">
         <v>1657</v>
       </c>
       <c r="S334" s="43"/>
@@ -32383,7 +32398,7 @@
       <c r="Q335" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R335" s="53" t="s">
+      <c r="R335" s="52" t="s">
         <v>1660</v>
       </c>
       <c r="S335" s="43"/>
@@ -32466,7 +32481,7 @@
       <c r="Q336" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R336" s="53" t="s">
+      <c r="R336" s="52" t="s">
         <v>1662</v>
       </c>
       <c r="S336" s="43"/>
@@ -32549,7 +32564,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="53" t="s">
+      <c r="R337" s="52" t="s">
         <v>1665</v>
       </c>
       <c r="S337" s="43"/>
@@ -36127,7 +36142,7 @@
       <c r="G389" s="19" t="s">
         <v>1278</v>
       </c>
-      <c r="H389" s="52"/>
+      <c r="H389" s="51"/>
       <c r="I389" s="19" t="s">
         <v>1279</v>
       </c>
@@ -36196,7 +36211,7 @@
       <c r="G390" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="H390" s="52"/>
+      <c r="H390" s="51"/>
       <c r="I390" s="19" t="s">
         <v>1109</v>
       </c>
@@ -36265,7 +36280,7 @@
       <c r="G391" s="19" t="s">
         <v>1286</v>
       </c>
-      <c r="H391" s="52"/>
+      <c r="H391" s="51"/>
       <c r="I391" s="19" t="s">
         <v>1279</v>
       </c>
@@ -36908,7 +36923,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1329</v>
@@ -36973,7 +36988,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1334</v>
@@ -37038,7 +37053,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1338</v>
@@ -37103,7 +37118,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1343</v>
@@ -37168,7 +37183,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1346</v>
@@ -37233,7 +37248,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1350</v>
@@ -37298,7 +37313,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1356</v>
@@ -37363,7 +37378,7 @@
         <v>10324</v>
       </c>
       <c r="F408" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>1381</v>
@@ -37428,7 +37443,7 @@
         <v>10325</v>
       </c>
       <c r="F409" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>1371</v>
@@ -37493,7 +37508,7 @@
         <v>10326</v>
       </c>
       <c r="F410" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>1388</v>
@@ -37558,7 +37573,7 @@
         <v>10327</v>
       </c>
       <c r="F411" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G411" s="5" t="s">
         <v>1373</v>
@@ -37623,7 +37638,7 @@
         <v>10328</v>
       </c>
       <c r="F412" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G412" s="5" t="s">
         <v>1392</v>
@@ -37688,7 +37703,7 @@
         <v>10329</v>
       </c>
       <c r="F413" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413" s="5" t="s">
         <v>1396</v>
@@ -37745,62 +37760,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="54">
+    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="53">
         <v>413</v>
       </c>
-      <c r="B414" s="54">
+      <c r="B414" s="53">
         <v>10330</v>
       </c>
-      <c r="D414" s="54">
-        <v>1</v>
-      </c>
-      <c r="F414" s="54">
-        <v>1</v>
-      </c>
-      <c r="G414" s="54" t="s">
+      <c r="D414" s="53">
+        <v>1</v>
+      </c>
+      <c r="F414" s="53">
+        <v>1</v>
+      </c>
+      <c r="G414" s="53" t="s">
         <v>1375</v>
       </c>
-      <c r="H414" s="54" t="s">
+      <c r="H414" s="53" t="s">
         <v>1793</v>
       </c>
-      <c r="L414" s="54">
+      <c r="L414" s="53">
         <v>-4</v>
       </c>
-      <c r="M414" s="54">
-        <v>0</v>
-      </c>
-      <c r="N414" s="54">
-        <v>0</v>
-      </c>
-      <c r="O414" s="54" t="s">
+      <c r="M414" s="53">
+        <v>0</v>
+      </c>
+      <c r="N414" s="53">
+        <v>0</v>
+      </c>
+      <c r="O414" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="54">
+      <c r="P414" s="53">
         <v>600</v>
       </c>
-      <c r="Q414" s="54" t="s">
+      <c r="Q414" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="59" t="s">
+      <c r="R414" s="58" t="s">
         <v>1376</v>
       </c>
-      <c r="W414" s="54" t="s">
+      <c r="W414" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="55" t="s">
+      <c r="X414" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="54">
+      <c r="Y414" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="53">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="54">
+      <c r="AH414" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="53">
         <v>1</v>
       </c>
     </row>
@@ -37812,7 +37827,7 @@
         <v>10331</v>
       </c>
       <c r="F415" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415" s="5" t="s">
         <v>1405</v>
@@ -37880,7 +37895,7 @@
         <v>10332</v>
       </c>
       <c r="F416" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G416" s="5" t="s">
         <v>1410</v>
@@ -37948,7 +37963,7 @@
         <v>10333</v>
       </c>
       <c r="F417" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>1414</v>
@@ -38016,7 +38031,7 @@
         <v>10334</v>
       </c>
       <c r="F418" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G418" s="5" t="s">
         <v>1416</v>
@@ -38084,7 +38099,7 @@
         <v>10335</v>
       </c>
       <c r="F419" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G419" s="5" t="s">
         <v>1418</v>
@@ -38152,7 +38167,7 @@
         <v>10336</v>
       </c>
       <c r="F420" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G420" s="5" t="s">
         <v>1420</v>
@@ -38212,827 +38227,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="19">
+    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="63">
         <v>420</v>
       </c>
-      <c r="B421" s="19">
+      <c r="B421" s="63">
         <v>10337</v>
       </c>
-      <c r="F421" s="19">
-        <v>1</v>
-      </c>
-      <c r="G421" s="19" t="s">
+      <c r="F421" s="63">
+        <v>1</v>
+      </c>
+      <c r="G421" s="63" t="s">
         <v>1421</v>
       </c>
-      <c r="J421" s="19" t="s">
+      <c r="J421" s="63" t="s">
         <v>1422</v>
       </c>
-      <c r="L421" s="19">
+      <c r="L421" s="63">
         <v>-31</v>
       </c>
-      <c r="M421" s="19">
-        <v>0</v>
-      </c>
-      <c r="N421" s="19">
-        <v>0</v>
-      </c>
-      <c r="O421" s="19" t="s">
+      <c r="M421" s="63">
+        <v>0</v>
+      </c>
+      <c r="N421" s="63">
+        <v>0</v>
+      </c>
+      <c r="O421" s="63" t="s">
         <v>1423</v>
       </c>
-      <c r="P421" s="19">
+      <c r="P421" s="63">
         <v>1000</v>
       </c>
-      <c r="Q421" s="19" t="s">
+      <c r="Q421" s="63" t="s">
         <v>1424</v>
       </c>
-      <c r="R421" s="39" t="s">
+      <c r="R421" s="64" t="s">
         <v>1425</v>
       </c>
-      <c r="W421" s="19" t="s">
+      <c r="W421" s="63" t="s">
         <v>1426</v>
       </c>
-      <c r="X421" s="19">
+      <c r="X421" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="19">
+      <c r="Y421" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="19">
+      <c r="Z421" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="19" t="s">
+      <c r="AB421" s="63" t="s">
         <v>1427</v>
       </c>
-      <c r="AC421" s="19" t="s">
+      <c r="AC421" s="63" t="s">
         <v>1428</v>
       </c>
-      <c r="AH421" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="5">
+      <c r="AH421" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="63">
         <v>421</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="63">
         <v>10338</v>
       </c>
-      <c r="F422" s="5">
-        <v>1</v>
-      </c>
-      <c r="G422" s="5" t="s">
+      <c r="F422" s="63">
+        <v>1</v>
+      </c>
+      <c r="G422" s="63" t="s">
         <v>1447</v>
       </c>
-      <c r="I422" s="5" t="s">
+      <c r="I422" s="63" t="s">
         <v>1448</v>
       </c>
-      <c r="J422" s="5" t="s">
+      <c r="J422" s="63" t="s">
         <v>1449</v>
       </c>
-      <c r="L422" s="5">
+      <c r="L422" s="63">
         <v>-31</v>
       </c>
-      <c r="M422" s="5">
-        <v>0</v>
-      </c>
-      <c r="N422" s="5">
-        <v>0</v>
-      </c>
-      <c r="O422" s="5" t="s">
+      <c r="M422" s="63">
+        <v>0</v>
+      </c>
+      <c r="N422" s="63">
+        <v>0</v>
+      </c>
+      <c r="O422" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="5">
+      <c r="P422" s="63">
         <v>2000</v>
       </c>
-      <c r="Q422" s="5" t="s">
+      <c r="Q422" s="63" t="s">
         <v>1450</v>
       </c>
-      <c r="R422" s="10" t="s">
+      <c r="R422" s="64" t="s">
         <v>1451</v>
       </c>
-      <c r="W422" s="5" t="s">
+      <c r="W422" s="63" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="5">
+      <c r="X422" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="5">
+      <c r="Y422" s="63">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="5">
+      <c r="Z422" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="5">
+      <c r="AA422" s="63">
         <v>51</v>
       </c>
-      <c r="AH422" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="5">
+      <c r="AH422" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="63">
         <v>422</v>
       </c>
-      <c r="B423" s="5">
+      <c r="B423" s="63">
         <v>10339</v>
       </c>
-      <c r="F423" s="5">
-        <v>1</v>
-      </c>
-      <c r="G423" s="5" t="s">
+      <c r="F423" s="63">
+        <v>1</v>
+      </c>
+      <c r="G423" s="63" t="s">
         <v>1429</v>
       </c>
-      <c r="I423" s="5" t="s">
+      <c r="I423" s="63" t="s">
         <v>1448</v>
       </c>
-      <c r="J423" s="5" t="s">
+      <c r="J423" s="63" t="s">
         <v>1452</v>
       </c>
-      <c r="L423" s="5">
+      <c r="L423" s="63">
         <v>-31</v>
       </c>
-      <c r="M423" s="5">
-        <v>0</v>
-      </c>
-      <c r="N423" s="5">
-        <v>0</v>
-      </c>
-      <c r="O423" s="5" t="s">
+      <c r="M423" s="63">
+        <v>0</v>
+      </c>
+      <c r="N423" s="63">
+        <v>0</v>
+      </c>
+      <c r="O423" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="5">
+      <c r="P423" s="63">
         <v>5800</v>
       </c>
-      <c r="Q423" s="5" t="s">
+      <c r="Q423" s="63" t="s">
         <v>1453</v>
       </c>
-      <c r="R423" s="10" t="s">
+      <c r="R423" s="64" t="s">
         <v>1454</v>
       </c>
-      <c r="W423" s="5" t="s">
+      <c r="W423" s="63" t="s">
         <v>1455</v>
       </c>
-      <c r="X423" s="5">
+      <c r="X423" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="5">
+      <c r="Y423" s="63">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="5">
+      <c r="Z423" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="5">
+      <c r="AA423" s="63">
         <v>51</v>
       </c>
-      <c r="AH423" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="5">
+      <c r="AH423" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="63">
         <v>423</v>
       </c>
-      <c r="B424" s="5">
+      <c r="B424" s="63">
         <v>10340</v>
       </c>
-      <c r="F424" s="5">
-        <v>1</v>
-      </c>
-      <c r="G424" s="5" t="s">
+      <c r="F424" s="63">
+        <v>1</v>
+      </c>
+      <c r="G424" s="63" t="s">
         <v>1456</v>
       </c>
-      <c r="I424" s="5" t="s">
+      <c r="I424" s="63" t="s">
         <v>1457</v>
       </c>
-      <c r="J424" s="5" t="s">
+      <c r="J424" s="63" t="s">
         <v>1458</v>
       </c>
-      <c r="L424" s="5">
+      <c r="L424" s="63">
         <v>-31</v>
       </c>
-      <c r="M424" s="5">
-        <v>0</v>
-      </c>
-      <c r="N424" s="5">
-        <v>0</v>
-      </c>
-      <c r="O424" s="5" t="s">
+      <c r="M424" s="63">
+        <v>0</v>
+      </c>
+      <c r="N424" s="63">
+        <v>0</v>
+      </c>
+      <c r="O424" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="5">
+      <c r="P424" s="63">
         <v>12800</v>
       </c>
-      <c r="Q424" s="5" t="s">
+      <c r="Q424" s="63" t="s">
         <v>1459</v>
       </c>
-      <c r="R424" s="10" t="s">
+      <c r="R424" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="W424" s="5" t="s">
+      <c r="W424" s="63" t="s">
         <v>1455</v>
       </c>
-      <c r="X424" s="5">
+      <c r="X424" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="5">
+      <c r="Y424" s="63">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="5">
+      <c r="Z424" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="5">
+      <c r="AA424" s="63">
         <v>51</v>
       </c>
-      <c r="AH424" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A425" s="6">
+      <c r="AH424" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="63">
         <v>424</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425" s="63">
         <v>10341</v>
       </c>
-      <c r="F425" s="6">
-        <v>1</v>
-      </c>
-      <c r="G425" s="6" t="s">
+      <c r="F425" s="63">
+        <v>1</v>
+      </c>
+      <c r="G425" s="63" t="s">
         <v>1431</v>
       </c>
-      <c r="J425" s="6" t="s">
+      <c r="J425" s="63" t="s">
         <v>1432</v>
       </c>
-      <c r="L425" s="6">
+      <c r="L425" s="63">
         <v>-31</v>
       </c>
-      <c r="M425" s="6">
-        <v>0</v>
-      </c>
-      <c r="N425" s="6">
-        <v>0</v>
-      </c>
-      <c r="O425" s="5" t="s">
+      <c r="M425" s="63">
+        <v>0</v>
+      </c>
+      <c r="N425" s="63">
+        <v>0</v>
+      </c>
+      <c r="O425" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="6">
+      <c r="P425" s="63">
         <v>49800</v>
       </c>
-      <c r="Q425" s="6" t="s">
+      <c r="Q425" s="63" t="s">
         <v>1433</v>
       </c>
-      <c r="R425" s="49" t="s">
+      <c r="R425" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="W425" s="6" t="s">
+      <c r="W425" s="63" t="s">
         <v>1430</v>
       </c>
-      <c r="X425" s="6">
+      <c r="X425" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="19">
+      <c r="Y425" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="19">
+      <c r="Z425" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A426" s="6">
+      <c r="AH425" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="63">
         <v>425</v>
       </c>
-      <c r="B426" s="5">
+      <c r="B426" s="63">
         <v>10342</v>
       </c>
-      <c r="F426" s="6">
-        <v>1</v>
-      </c>
-      <c r="G426" s="6" t="s">
+      <c r="F426" s="63">
+        <v>1</v>
+      </c>
+      <c r="G426" s="63" t="s">
         <v>1435</v>
       </c>
-      <c r="J426" s="6" t="s">
+      <c r="J426" s="63" t="s">
         <v>1436</v>
       </c>
-      <c r="L426" s="6">
+      <c r="L426" s="63">
         <v>-31</v>
       </c>
-      <c r="M426" s="6">
-        <v>0</v>
-      </c>
-      <c r="N426" s="6">
-        <v>0</v>
-      </c>
-      <c r="O426" s="5" t="s">
+      <c r="M426" s="63">
+        <v>0</v>
+      </c>
+      <c r="N426" s="63">
+        <v>0</v>
+      </c>
+      <c r="O426" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="6">
+      <c r="P426" s="63">
         <v>19800</v>
       </c>
-      <c r="Q426" s="6" t="s">
+      <c r="Q426" s="63" t="s">
         <v>1437</v>
       </c>
-      <c r="R426" s="49" t="s">
+      <c r="R426" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="W426" s="6" t="s">
+      <c r="W426" s="63" t="s">
         <v>1430</v>
       </c>
-      <c r="X426" s="6">
+      <c r="X426" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="19">
+      <c r="Y426" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="19">
+      <c r="Z426" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A427" s="6">
+      <c r="AH426" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="63">
         <v>426</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427" s="63">
         <v>10343</v>
       </c>
-      <c r="F427" s="6">
-        <v>1</v>
-      </c>
-      <c r="G427" s="6" t="s">
+      <c r="F427" s="63">
+        <v>1</v>
+      </c>
+      <c r="G427" s="63" t="s">
         <v>1438</v>
       </c>
-      <c r="J427" s="6" t="s">
+      <c r="J427" s="63" t="s">
         <v>1439</v>
       </c>
-      <c r="L427" s="6">
+      <c r="L427" s="63">
         <v>-31</v>
       </c>
-      <c r="M427" s="6">
-        <v>0</v>
-      </c>
-      <c r="N427" s="6">
-        <v>0</v>
-      </c>
-      <c r="O427" s="5" t="s">
+      <c r="M427" s="63">
+        <v>0</v>
+      </c>
+      <c r="N427" s="63">
+        <v>0</v>
+      </c>
+      <c r="O427" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="6">
+      <c r="P427" s="63">
         <v>9800</v>
       </c>
-      <c r="Q427" s="6" t="s">
+      <c r="Q427" s="63" t="s">
         <v>1440</v>
       </c>
-      <c r="R427" s="49" t="s">
+      <c r="R427" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="6" t="s">
+      <c r="W427" s="63" t="s">
         <v>1430</v>
       </c>
-      <c r="X427" s="6">
+      <c r="X427" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="19">
+      <c r="Y427" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="19">
+      <c r="Z427" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A428" s="6">
+      <c r="AH427" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="63">
         <v>427</v>
       </c>
-      <c r="B428" s="5">
+      <c r="B428" s="63">
         <v>10344</v>
       </c>
-      <c r="F428" s="6">
-        <v>1</v>
-      </c>
-      <c r="G428" s="6" t="s">
+      <c r="F428" s="63">
+        <v>1</v>
+      </c>
+      <c r="G428" s="63" t="s">
         <v>1441</v>
       </c>
-      <c r="J428" s="6" t="s">
+      <c r="J428" s="63" t="s">
         <v>1442</v>
       </c>
-      <c r="L428" s="6">
+      <c r="L428" s="63">
         <v>-31</v>
       </c>
-      <c r="M428" s="6">
-        <v>0</v>
-      </c>
-      <c r="N428" s="6">
-        <v>0</v>
-      </c>
-      <c r="O428" s="5" t="s">
+      <c r="M428" s="63">
+        <v>0</v>
+      </c>
+      <c r="N428" s="63">
+        <v>0</v>
+      </c>
+      <c r="O428" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="6">
+      <c r="P428" s="63">
         <v>9800</v>
       </c>
-      <c r="Q428" s="6" t="s">
+      <c r="Q428" s="63" t="s">
         <v>1443</v>
       </c>
-      <c r="R428" s="49" t="s">
+      <c r="R428" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="W428" s="6" t="s">
+      <c r="W428" s="63" t="s">
         <v>1426</v>
       </c>
-      <c r="X428" s="6">
+      <c r="X428" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="19">
+      <c r="Y428" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="19">
+      <c r="Z428" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A429" s="6">
+      <c r="AH428" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="63">
         <v>428</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429" s="63">
         <v>10345</v>
       </c>
-      <c r="F429" s="6">
-        <v>1</v>
-      </c>
-      <c r="G429" s="6" t="s">
+      <c r="F429" s="63">
+        <v>1</v>
+      </c>
+      <c r="G429" s="63" t="s">
         <v>1444</v>
       </c>
-      <c r="J429" s="6" t="s">
+      <c r="J429" s="63" t="s">
         <v>1445</v>
       </c>
-      <c r="L429" s="6">
+      <c r="L429" s="63">
         <v>-31</v>
       </c>
-      <c r="M429" s="6">
-        <v>0</v>
-      </c>
-      <c r="N429" s="6">
-        <v>0</v>
-      </c>
-      <c r="O429" s="5" t="s">
+      <c r="M429" s="63">
+        <v>0</v>
+      </c>
+      <c r="N429" s="63">
+        <v>0</v>
+      </c>
+      <c r="O429" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="6">
+      <c r="P429" s="63">
         <v>4800</v>
       </c>
-      <c r="Q429" s="6" t="s">
+      <c r="Q429" s="63" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="49" t="s">
+      <c r="R429" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="6" t="s">
+      <c r="W429" s="63" t="s">
         <v>1426</v>
       </c>
-      <c r="X429" s="6">
+      <c r="X429" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="19">
+      <c r="Y429" s="63">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="19">
+      <c r="Z429" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="43">
+      <c r="AH429" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="63">
         <v>429</v>
       </c>
-      <c r="B430" s="43">
+      <c r="B430" s="63">
         <v>10346</v>
       </c>
-      <c r="F430" s="43">
-        <v>1</v>
-      </c>
-      <c r="G430" s="43" t="s">
+      <c r="F430" s="63">
+        <v>1</v>
+      </c>
+      <c r="G430" s="63" t="s">
         <v>1770</v>
       </c>
-      <c r="I430" s="43" t="s">
+      <c r="I430" s="63" t="s">
         <v>1771</v>
       </c>
-      <c r="J430" s="43" t="s">
+      <c r="J430" s="63" t="s">
         <v>1772</v>
       </c>
-      <c r="L430" s="43">
+      <c r="L430" s="63">
         <v>-28</v>
       </c>
-      <c r="M430" s="43">
-        <v>0</v>
-      </c>
-      <c r="N430" s="43">
-        <v>0</v>
-      </c>
-      <c r="O430" s="43" t="s">
+      <c r="M430" s="63">
+        <v>0</v>
+      </c>
+      <c r="N430" s="63">
+        <v>0</v>
+      </c>
+      <c r="O430" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="43">
+      <c r="P430" s="63">
         <v>100</v>
       </c>
-      <c r="Q430" s="43" t="s">
+      <c r="Q430" s="63" t="s">
         <v>1399</v>
       </c>
-      <c r="R430" s="53" t="s">
+      <c r="R430" s="64" t="s">
         <v>1773</v>
       </c>
-      <c r="W430" s="43" t="s">
+      <c r="W430" s="63" t="s">
         <v>1774</v>
       </c>
-      <c r="X430" s="43">
+      <c r="X430" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="43">
+      <c r="Y430" s="63">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="43">
+      <c r="Z430" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="43">
+      <c r="AA430" s="63">
         <v>14</v>
       </c>
-      <c r="AH430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="43">
+      <c r="AH430" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="63">
         <v>430</v>
       </c>
-      <c r="B431" s="43">
+      <c r="B431" s="63">
         <v>10347</v>
       </c>
-      <c r="F431" s="43">
-        <v>1</v>
-      </c>
-      <c r="G431" s="43" t="s">
+      <c r="F431" s="63">
+        <v>1</v>
+      </c>
+      <c r="G431" s="63" t="s">
         <v>1770</v>
       </c>
-      <c r="I431" s="43" t="s">
+      <c r="I431" s="63" t="s">
         <v>1775</v>
       </c>
-      <c r="J431" s="43" t="s">
+      <c r="J431" s="63" t="s">
         <v>1776</v>
       </c>
-      <c r="L431" s="43">
+      <c r="L431" s="63">
         <v>-28</v>
       </c>
-      <c r="M431" s="43">
-        <v>0</v>
-      </c>
-      <c r="N431" s="43">
-        <v>0</v>
-      </c>
-      <c r="O431" s="43" t="s">
+      <c r="M431" s="63">
+        <v>0</v>
+      </c>
+      <c r="N431" s="63">
+        <v>0</v>
+      </c>
+      <c r="O431" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="43">
+      <c r="P431" s="63">
         <v>300</v>
       </c>
-      <c r="Q431" s="43" t="s">
+      <c r="Q431" s="63" t="s">
         <v>1399</v>
       </c>
-      <c r="R431" s="53" t="s">
+      <c r="R431" s="64" t="s">
         <v>1777</v>
       </c>
-      <c r="W431" s="43" t="s">
+      <c r="W431" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="43">
+      <c r="X431" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="43">
+      <c r="Y431" s="63">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="43">
+      <c r="Z431" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="43">
+      <c r="AA431" s="63">
         <v>14</v>
       </c>
-      <c r="AH431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="43">
+      <c r="AH431" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="63">
         <v>431</v>
       </c>
-      <c r="B432" s="43">
+      <c r="B432" s="63">
         <v>10348</v>
       </c>
-      <c r="F432" s="43">
-        <v>1</v>
-      </c>
-      <c r="G432" s="43" t="s">
+      <c r="F432" s="63">
+        <v>1</v>
+      </c>
+      <c r="G432" s="63" t="s">
         <v>1770</v>
       </c>
-      <c r="I432" s="43" t="s">
+      <c r="I432" s="63" t="s">
         <v>1778</v>
       </c>
-      <c r="J432" s="43" t="s">
+      <c r="J432" s="63" t="s">
         <v>1779</v>
       </c>
-      <c r="L432" s="43">
+      <c r="L432" s="63">
         <v>-28</v>
       </c>
-      <c r="M432" s="43">
-        <v>0</v>
-      </c>
-      <c r="N432" s="43">
-        <v>0</v>
-      </c>
-      <c r="O432" s="43" t="s">
+      <c r="M432" s="63">
+        <v>0</v>
+      </c>
+      <c r="N432" s="63">
+        <v>0</v>
+      </c>
+      <c r="O432" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="43">
+      <c r="P432" s="63">
         <v>600</v>
       </c>
-      <c r="Q432" s="43" t="s">
+      <c r="Q432" s="63" t="s">
         <v>1399</v>
       </c>
-      <c r="R432" s="53" t="s">
+      <c r="R432" s="64" t="s">
         <v>1780</v>
       </c>
-      <c r="W432" s="43" t="s">
+      <c r="W432" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="43">
+      <c r="X432" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="43">
+      <c r="Y432" s="63">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="43">
+      <c r="Z432" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="43">
+      <c r="AA432" s="63">
         <v>14</v>
       </c>
-      <c r="AH432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="43">
+      <c r="AH432" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="63">
         <v>432</v>
       </c>
-      <c r="B433" s="43">
+      <c r="B433" s="63">
         <v>10349</v>
       </c>
-      <c r="F433" s="43">
-        <v>1</v>
-      </c>
-      <c r="G433" s="43" t="s">
+      <c r="F433" s="63">
+        <v>1</v>
+      </c>
+      <c r="G433" s="63" t="s">
         <v>1770</v>
       </c>
-      <c r="I433" s="43" t="s">
+      <c r="I433" s="63" t="s">
         <v>1781</v>
       </c>
-      <c r="J433" s="43" t="s">
+      <c r="J433" s="63" t="s">
         <v>1782</v>
       </c>
-      <c r="L433" s="43">
+      <c r="L433" s="63">
         <v>-28</v>
       </c>
-      <c r="M433" s="43">
-        <v>0</v>
-      </c>
-      <c r="N433" s="43">
-        <v>0</v>
-      </c>
-      <c r="O433" s="43" t="s">
+      <c r="M433" s="63">
+        <v>0</v>
+      </c>
+      <c r="N433" s="63">
+        <v>0</v>
+      </c>
+      <c r="O433" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="43">
+      <c r="P433" s="63">
         <v>600</v>
       </c>
-      <c r="Q433" s="43" t="s">
+      <c r="Q433" s="63" t="s">
         <v>1783</v>
       </c>
-      <c r="R433" s="53" t="s">
+      <c r="R433" s="64" t="s">
         <v>1784</v>
       </c>
-      <c r="W433" s="43" t="s">
+      <c r="W433" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="43">
+      <c r="X433" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="43">
+      <c r="Y433" s="63">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="43">
+      <c r="Z433" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="43">
+      <c r="AA433" s="63">
         <v>14</v>
       </c>
-      <c r="AH433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="43">
+      <c r="AH433" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="63">
         <v>1</v>
       </c>
     </row>
@@ -39044,7 +39059,7 @@
         <v>10350</v>
       </c>
       <c r="F434" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
         <v>1461</v>
@@ -39109,7 +39124,7 @@
         <v>10351</v>
       </c>
       <c r="F435" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>1466</v>
@@ -39174,7 +39189,7 @@
         <v>10352</v>
       </c>
       <c r="F436" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>1469</v>
@@ -39239,7 +39254,7 @@
         <v>10353</v>
       </c>
       <c r="F437" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>1474</v>
@@ -39304,7 +39319,7 @@
         <v>10354</v>
       </c>
       <c r="F438" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>1478</v>
@@ -39369,7 +39384,7 @@
         <v>10355</v>
       </c>
       <c r="F439" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>1482</v>
@@ -39434,7 +39449,7 @@
         <v>10356</v>
       </c>
       <c r="F440" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
         <v>1486</v>
@@ -39499,7 +39514,7 @@
         <v>10357</v>
       </c>
       <c r="F441" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
         <v>1489</v>
@@ -39561,7 +39576,7 @@
         <v>10358</v>
       </c>
       <c r="F442" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
         <v>1494</v>
@@ -39623,7 +39638,7 @@
         <v>10359</v>
       </c>
       <c r="F443" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
         <v>1497</v>
@@ -39685,7 +39700,7 @@
         <v>10360</v>
       </c>
       <c r="F444" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
         <v>1501</v>
@@ -39747,7 +39762,7 @@
         <v>10361</v>
       </c>
       <c r="F445" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
         <v>1504</v>
@@ -39809,7 +39824,7 @@
         <v>10362</v>
       </c>
       <c r="F446" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
         <v>1508</v>
@@ -39863,1930 +39878,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="5">
+    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="63">
         <v>446</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447" s="63">
         <v>10363</v>
       </c>
-      <c r="F447" s="5">
-        <v>1</v>
-      </c>
-      <c r="G447" s="5" t="s">
+      <c r="F447" s="63">
+        <v>1</v>
+      </c>
+      <c r="G447" s="63" t="s">
         <v>1525</v>
       </c>
-      <c r="I447" s="5" t="s">
+      <c r="I447" s="63" t="s">
         <v>1526</v>
       </c>
-      <c r="J447" s="5" t="s">
+      <c r="J447" s="63" t="s">
         <v>1527</v>
       </c>
-      <c r="L447" s="5">
+      <c r="L447" s="63">
         <v>-31</v>
       </c>
-      <c r="M447" s="5">
-        <v>0</v>
-      </c>
-      <c r="N447" s="5">
-        <v>0</v>
-      </c>
-      <c r="O447" s="5" t="s">
+      <c r="M447" s="63">
+        <v>0</v>
+      </c>
+      <c r="N447" s="63">
+        <v>0</v>
+      </c>
+      <c r="O447" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="5">
+      <c r="P447" s="63">
         <v>800</v>
       </c>
-      <c r="Q447" s="5" t="s">
+      <c r="Q447" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R447" s="10" t="s">
+      <c r="R447" s="64" t="s">
         <v>1529</v>
       </c>
-      <c r="W447" s="5" t="s">
+      <c r="W447" s="63" t="s">
         <v>1530</v>
       </c>
-      <c r="X447" s="5">
+      <c r="X447" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="5">
+      <c r="Y447" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="5">
+      <c r="Z447" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="5">
+      <c r="AA447" s="63">
         <v>52</v>
       </c>
-      <c r="AH447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="5">
+      <c r="AH447" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="63">
         <v>447</v>
       </c>
-      <c r="B448" s="5">
+      <c r="B448" s="63">
         <v>10364</v>
       </c>
-      <c r="F448" s="5">
-        <v>1</v>
-      </c>
-      <c r="G448" s="5" t="s">
+      <c r="F448" s="63">
+        <v>1</v>
+      </c>
+      <c r="G448" s="63" t="s">
         <v>1531</v>
       </c>
-      <c r="I448" s="5" t="s">
+      <c r="I448" s="63" t="s">
         <v>1532</v>
       </c>
-      <c r="J448" s="5" t="s">
+      <c r="J448" s="63" t="s">
         <v>1533</v>
       </c>
-      <c r="L448" s="5">
+      <c r="L448" s="63">
         <v>-31</v>
       </c>
-      <c r="M448" s="5">
-        <v>0</v>
-      </c>
-      <c r="N448" s="5">
-        <v>0</v>
-      </c>
-      <c r="O448" s="5" t="s">
+      <c r="M448" s="63">
+        <v>0</v>
+      </c>
+      <c r="N448" s="63">
+        <v>0</v>
+      </c>
+      <c r="O448" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="5">
+      <c r="P448" s="63">
         <v>800</v>
       </c>
-      <c r="Q448" s="5" t="s">
+      <c r="Q448" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="10" t="s">
+      <c r="R448" s="64" t="s">
         <v>1534</v>
       </c>
-      <c r="W448" s="5" t="s">
+      <c r="W448" s="63" t="s">
         <v>1530</v>
       </c>
-      <c r="X448" s="5">
+      <c r="X448" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="5">
+      <c r="Y448" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="5">
+      <c r="Z448" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="5">
+      <c r="AH448" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="63">
         <v>448</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449" s="63">
         <v>10365</v>
       </c>
-      <c r="F449" s="5">
-        <v>1</v>
-      </c>
-      <c r="G449" s="5" t="s">
+      <c r="F449" s="63">
+        <v>1</v>
+      </c>
+      <c r="G449" s="63" t="s">
         <v>1535</v>
       </c>
-      <c r="I449" s="5" t="s">
+      <c r="I449" s="63" t="s">
         <v>1536</v>
       </c>
-      <c r="J449" s="5" t="s">
+      <c r="J449" s="63" t="s">
         <v>1537</v>
       </c>
-      <c r="L449" s="5">
+      <c r="L449" s="63">
         <v>-31</v>
       </c>
-      <c r="M449" s="5">
-        <v>0</v>
-      </c>
-      <c r="N449" s="5">
-        <v>0</v>
-      </c>
-      <c r="O449" s="5" t="s">
+      <c r="M449" s="63">
+        <v>0</v>
+      </c>
+      <c r="N449" s="63">
+        <v>0</v>
+      </c>
+      <c r="O449" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="5">
+      <c r="P449" s="63">
         <v>800</v>
       </c>
-      <c r="Q449" s="5" t="s">
+      <c r="Q449" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R449" s="10" t="s">
+      <c r="R449" s="64" t="s">
         <v>1538</v>
       </c>
-      <c r="W449" s="5" t="s">
+      <c r="W449" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="5">
+      <c r="X449" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="5">
+      <c r="Y449" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="5">
+      <c r="Z449" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="5">
+      <c r="AA449" s="63">
         <v>53</v>
       </c>
-      <c r="AH449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="5">
+      <c r="AH449" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="63">
         <v>449</v>
       </c>
-      <c r="B450" s="5">
+      <c r="B450" s="63">
         <v>10366</v>
       </c>
-      <c r="F450" s="5">
-        <v>1</v>
-      </c>
-      <c r="G450" s="5" t="s">
+      <c r="F450" s="63">
+        <v>1</v>
+      </c>
+      <c r="G450" s="63" t="s">
         <v>1539</v>
       </c>
-      <c r="I450" s="5" t="s">
+      <c r="I450" s="63" t="s">
         <v>1540</v>
       </c>
-      <c r="J450" s="5" t="s">
+      <c r="J450" s="63" t="s">
         <v>1541</v>
       </c>
-      <c r="L450" s="5">
+      <c r="L450" s="63">
         <v>-31</v>
       </c>
-      <c r="M450" s="5">
-        <v>0</v>
-      </c>
-      <c r="N450" s="5">
-        <v>0</v>
-      </c>
-      <c r="O450" s="5" t="s">
+      <c r="M450" s="63">
+        <v>0</v>
+      </c>
+      <c r="N450" s="63">
+        <v>0</v>
+      </c>
+      <c r="O450" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="5">
+      <c r="P450" s="63">
         <v>3800</v>
       </c>
-      <c r="Q450" s="5" t="s">
+      <c r="Q450" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R450" s="10" t="s">
+      <c r="R450" s="64" t="s">
         <v>1542</v>
       </c>
-      <c r="W450" s="5" t="s">
+      <c r="W450" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="5">
+      <c r="X450" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="5">
+      <c r="Y450" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="5">
+      <c r="Z450" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="5">
+      <c r="AA450" s="63">
         <v>54</v>
       </c>
-      <c r="AH450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="5">
+      <c r="AH450" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="63">
         <v>450</v>
       </c>
-      <c r="B451" s="5">
+      <c r="B451" s="63">
         <v>10367</v>
       </c>
-      <c r="F451" s="5">
-        <v>1</v>
-      </c>
-      <c r="G451" s="5" t="s">
+      <c r="F451" s="63">
+        <v>1</v>
+      </c>
+      <c r="G451" s="63" t="s">
         <v>1543</v>
       </c>
-      <c r="I451" s="5" t="s">
+      <c r="I451" s="63" t="s">
         <v>1544</v>
       </c>
-      <c r="J451" s="5" t="s">
+      <c r="J451" s="63" t="s">
         <v>1545</v>
       </c>
-      <c r="L451" s="5">
+      <c r="L451" s="63">
         <v>-31</v>
       </c>
-      <c r="M451" s="5">
-        <v>0</v>
-      </c>
-      <c r="N451" s="5">
-        <v>0</v>
-      </c>
-      <c r="O451" s="5" t="s">
+      <c r="M451" s="63">
+        <v>0</v>
+      </c>
+      <c r="N451" s="63">
+        <v>0</v>
+      </c>
+      <c r="O451" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="5">
+      <c r="P451" s="63">
         <v>3800</v>
       </c>
-      <c r="Q451" s="5" t="s">
+      <c r="Q451" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R451" s="10" t="s">
+      <c r="R451" s="64" t="s">
         <v>1546</v>
       </c>
-      <c r="W451" s="5" t="s">
+      <c r="W451" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="5">
+      <c r="X451" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="5">
+      <c r="Y451" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="5">
+      <c r="Z451" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="5">
+      <c r="AH451" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="63">
         <v>451</v>
       </c>
-      <c r="B452" s="5">
+      <c r="B452" s="63">
         <v>10368</v>
       </c>
-      <c r="F452" s="5">
-        <v>1</v>
-      </c>
-      <c r="G452" s="5" t="s">
+      <c r="F452" s="63">
+        <v>1</v>
+      </c>
+      <c r="G452" s="63" t="s">
         <v>1547</v>
       </c>
-      <c r="I452" s="5" t="s">
+      <c r="I452" s="63" t="s">
         <v>1548</v>
       </c>
-      <c r="J452" s="5" t="s">
+      <c r="J452" s="63" t="s">
         <v>1549</v>
       </c>
-      <c r="L452" s="5">
+      <c r="L452" s="63">
         <v>-31</v>
       </c>
-      <c r="M452" s="5">
-        <v>0</v>
-      </c>
-      <c r="N452" s="5">
-        <v>0</v>
-      </c>
-      <c r="O452" s="5" t="s">
+      <c r="M452" s="63">
+        <v>0</v>
+      </c>
+      <c r="N452" s="63">
+        <v>0</v>
+      </c>
+      <c r="O452" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="5">
+      <c r="P452" s="63">
         <v>3800</v>
       </c>
-      <c r="Q452" s="5" t="s">
+      <c r="Q452" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R452" s="10" t="s">
+      <c r="R452" s="64" t="s">
         <v>1550</v>
       </c>
-      <c r="W452" s="5" t="s">
+      <c r="W452" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="5">
+      <c r="X452" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="5">
+      <c r="Y452" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="5">
+      <c r="Z452" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="5">
+      <c r="AA452" s="63">
         <v>55</v>
       </c>
-      <c r="AH452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="5">
+      <c r="AH452" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="63">
         <v>452</v>
       </c>
-      <c r="B453" s="5">
+      <c r="B453" s="63">
         <v>10369</v>
       </c>
-      <c r="F453" s="5">
-        <v>1</v>
-      </c>
-      <c r="G453" s="5" t="s">
+      <c r="F453" s="63">
+        <v>1</v>
+      </c>
+      <c r="G453" s="63" t="s">
         <v>1551</v>
       </c>
-      <c r="I453" s="5" t="s">
+      <c r="I453" s="63" t="s">
         <v>1552</v>
       </c>
-      <c r="J453" s="5" t="s">
+      <c r="J453" s="63" t="s">
         <v>1553</v>
       </c>
-      <c r="L453" s="5">
+      <c r="L453" s="63">
         <v>-31</v>
       </c>
-      <c r="M453" s="5">
-        <v>0</v>
-      </c>
-      <c r="N453" s="5">
-        <v>0</v>
-      </c>
-      <c r="O453" s="5" t="s">
+      <c r="M453" s="63">
+        <v>0</v>
+      </c>
+      <c r="N453" s="63">
+        <v>0</v>
+      </c>
+      <c r="O453" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="5">
+      <c r="P453" s="63">
         <v>9800</v>
       </c>
-      <c r="Q453" s="5" t="s">
+      <c r="Q453" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R453" s="10" t="s">
+      <c r="R453" s="64" t="s">
         <v>1554</v>
       </c>
-      <c r="W453" s="5" t="s">
+      <c r="W453" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="5">
+      <c r="X453" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="5">
+      <c r="Y453" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="5">
+      <c r="Z453" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="5">
+      <c r="AA453" s="63">
         <v>56</v>
       </c>
-      <c r="AH453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="5">
+      <c r="AH453" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="63">
         <v>453</v>
       </c>
-      <c r="B454" s="5">
+      <c r="B454" s="63">
         <v>10370</v>
       </c>
-      <c r="F454" s="5">
-        <v>1</v>
-      </c>
-      <c r="G454" s="5" t="s">
+      <c r="F454" s="63">
+        <v>1</v>
+      </c>
+      <c r="G454" s="63" t="s">
         <v>1555</v>
       </c>
-      <c r="I454" s="5" t="s">
+      <c r="I454" s="63" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="5" t="s">
+      <c r="J454" s="63" t="s">
         <v>1557</v>
       </c>
-      <c r="L454" s="5">
+      <c r="L454" s="63">
         <v>-31</v>
       </c>
-      <c r="M454" s="5">
-        <v>0</v>
-      </c>
-      <c r="N454" s="5">
-        <v>0</v>
-      </c>
-      <c r="O454" s="5" t="s">
+      <c r="M454" s="63">
+        <v>0</v>
+      </c>
+      <c r="N454" s="63">
+        <v>0</v>
+      </c>
+      <c r="O454" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="5">
+      <c r="P454" s="63">
         <v>9800</v>
       </c>
-      <c r="Q454" s="5" t="s">
+      <c r="Q454" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R454" s="10" t="s">
+      <c r="R454" s="64" t="s">
         <v>1558</v>
       </c>
-      <c r="W454" s="5" t="s">
+      <c r="W454" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="5">
+      <c r="X454" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="5">
+      <c r="Y454" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="5">
+      <c r="Z454" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="5">
+      <c r="AH454" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="63">
         <v>454</v>
       </c>
-      <c r="B455" s="5">
+      <c r="B455" s="63">
         <v>10371</v>
       </c>
-      <c r="F455" s="5">
-        <v>1</v>
-      </c>
-      <c r="G455" s="5" t="s">
+      <c r="F455" s="63">
+        <v>1</v>
+      </c>
+      <c r="G455" s="63" t="s">
         <v>1559</v>
       </c>
-      <c r="I455" s="5" t="s">
+      <c r="I455" s="63" t="s">
         <v>1560</v>
       </c>
-      <c r="J455" s="5" t="s">
+      <c r="J455" s="63" t="s">
         <v>1561</v>
       </c>
-      <c r="L455" s="5">
+      <c r="L455" s="63">
         <v>-31</v>
       </c>
-      <c r="M455" s="5">
-        <v>0</v>
-      </c>
-      <c r="N455" s="5">
-        <v>0</v>
-      </c>
-      <c r="O455" s="5" t="s">
+      <c r="M455" s="63">
+        <v>0</v>
+      </c>
+      <c r="N455" s="63">
+        <v>0</v>
+      </c>
+      <c r="O455" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="5">
+      <c r="P455" s="63">
         <v>9800</v>
       </c>
-      <c r="Q455" s="5" t="s">
+      <c r="Q455" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R455" s="10" t="s">
+      <c r="R455" s="64" t="s">
         <v>1687</v>
       </c>
-      <c r="W455" s="5" t="s">
+      <c r="W455" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="5">
+      <c r="X455" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="5">
+      <c r="Y455" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="5">
+      <c r="Z455" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="5">
+      <c r="AA455" s="63">
         <v>57</v>
       </c>
-      <c r="AH455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="5">
+      <c r="AH455" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="63">
         <v>455</v>
       </c>
-      <c r="B456" s="5">
+      <c r="B456" s="63">
         <v>10372</v>
       </c>
-      <c r="F456" s="5">
-        <v>1</v>
-      </c>
-      <c r="G456" s="5" t="s">
+      <c r="F456" s="63">
+        <v>1</v>
+      </c>
+      <c r="G456" s="63" t="s">
         <v>1562</v>
       </c>
-      <c r="I456" s="5" t="s">
+      <c r="I456" s="63" t="s">
         <v>1563</v>
       </c>
-      <c r="J456" s="5" t="s">
+      <c r="J456" s="63" t="s">
         <v>1564</v>
       </c>
-      <c r="L456" s="5">
+      <c r="L456" s="63">
         <v>-31</v>
       </c>
-      <c r="M456" s="5">
-        <v>0</v>
-      </c>
-      <c r="N456" s="5">
-        <v>0</v>
-      </c>
-      <c r="O456" s="5" t="s">
+      <c r="M456" s="63">
+        <v>0</v>
+      </c>
+      <c r="N456" s="63">
+        <v>0</v>
+      </c>
+      <c r="O456" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="5">
+      <c r="P456" s="63">
         <v>19800</v>
       </c>
-      <c r="Q456" s="5" t="s">
+      <c r="Q456" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R456" s="10" t="s">
+      <c r="R456" s="64" t="s">
         <v>1565</v>
       </c>
-      <c r="W456" s="5" t="s">
+      <c r="W456" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="5">
+      <c r="X456" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="5">
+      <c r="Y456" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="5">
+      <c r="Z456" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="5">
+      <c r="AA456" s="63">
         <v>58</v>
       </c>
-      <c r="AH456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="5">
+      <c r="AH456" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="63">
         <v>456</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B457" s="63">
         <v>10373</v>
       </c>
-      <c r="F457" s="5">
-        <v>1</v>
-      </c>
-      <c r="G457" s="5" t="s">
+      <c r="F457" s="63">
+        <v>1</v>
+      </c>
+      <c r="G457" s="63" t="s">
         <v>1566</v>
       </c>
-      <c r="I457" s="5" t="s">
+      <c r="I457" s="63" t="s">
         <v>1567</v>
       </c>
-      <c r="J457" s="5" t="s">
+      <c r="J457" s="63" t="s">
         <v>1568</v>
       </c>
-      <c r="L457" s="5">
+      <c r="L457" s="63">
         <v>-31</v>
       </c>
-      <c r="M457" s="5">
-        <v>0</v>
-      </c>
-      <c r="N457" s="5">
-        <v>0</v>
-      </c>
-      <c r="O457" s="5" t="s">
+      <c r="M457" s="63">
+        <v>0</v>
+      </c>
+      <c r="N457" s="63">
+        <v>0</v>
+      </c>
+      <c r="O457" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="5">
+      <c r="P457" s="63">
         <v>19800</v>
       </c>
-      <c r="Q457" s="5" t="s">
+      <c r="Q457" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R457" s="10" t="s">
+      <c r="R457" s="64" t="s">
         <v>1569</v>
       </c>
-      <c r="W457" s="5" t="s">
+      <c r="W457" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="5">
+      <c r="X457" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="5">
+      <c r="Y457" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="5">
+      <c r="Z457" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="5">
+      <c r="AH457" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="63">
         <v>457</v>
       </c>
-      <c r="B458" s="5">
+      <c r="B458" s="63">
         <v>10374</v>
       </c>
-      <c r="F458" s="5">
-        <v>1</v>
-      </c>
-      <c r="G458" s="5" t="s">
+      <c r="F458" s="63">
+        <v>1</v>
+      </c>
+      <c r="G458" s="63" t="s">
         <v>1570</v>
       </c>
-      <c r="I458" s="5" t="s">
+      <c r="I458" s="63" t="s">
         <v>1571</v>
       </c>
-      <c r="J458" s="5" t="s">
+      <c r="J458" s="63" t="s">
         <v>1572</v>
       </c>
-      <c r="L458" s="5">
+      <c r="L458" s="63">
         <v>-31</v>
       </c>
-      <c r="M458" s="5">
-        <v>0</v>
-      </c>
-      <c r="N458" s="5">
-        <v>0</v>
-      </c>
-      <c r="O458" s="5" t="s">
+      <c r="M458" s="63">
+        <v>0</v>
+      </c>
+      <c r="N458" s="63">
+        <v>0</v>
+      </c>
+      <c r="O458" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="5">
+      <c r="P458" s="63">
         <v>19800</v>
       </c>
-      <c r="Q458" s="5" t="s">
+      <c r="Q458" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R458" s="10" t="s">
+      <c r="R458" s="64" t="s">
         <v>1573</v>
       </c>
-      <c r="W458" s="5" t="s">
+      <c r="W458" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="5">
+      <c r="X458" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="5">
+      <c r="Y458" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="5">
+      <c r="Z458" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="5">
+      <c r="AA458" s="63">
         <v>59</v>
       </c>
-      <c r="AH458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="5">
+      <c r="AH458" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="63">
         <v>458</v>
       </c>
-      <c r="B459" s="5">
+      <c r="B459" s="63">
         <v>10375</v>
       </c>
-      <c r="F459" s="5">
-        <v>1</v>
-      </c>
-      <c r="G459" s="5" t="s">
+      <c r="F459" s="63">
+        <v>1</v>
+      </c>
+      <c r="G459" s="63" t="s">
         <v>1574</v>
       </c>
-      <c r="I459" s="5" t="s">
+      <c r="I459" s="63" t="s">
         <v>1575</v>
       </c>
-      <c r="J459" s="5" t="s">
+      <c r="J459" s="63" t="s">
         <v>1576</v>
       </c>
-      <c r="L459" s="5">
+      <c r="L459" s="63">
         <v>-31</v>
       </c>
-      <c r="M459" s="5">
-        <v>0</v>
-      </c>
-      <c r="N459" s="5">
-        <v>0</v>
-      </c>
-      <c r="O459" s="5" t="s">
+      <c r="M459" s="63">
+        <v>0</v>
+      </c>
+      <c r="N459" s="63">
+        <v>0</v>
+      </c>
+      <c r="O459" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="5">
+      <c r="P459" s="63">
         <v>49800</v>
       </c>
-      <c r="Q459" s="5" t="s">
+      <c r="Q459" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R459" s="10" t="s">
+      <c r="R459" s="64" t="s">
         <v>1577</v>
       </c>
-      <c r="W459" s="5" t="s">
+      <c r="W459" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="5">
+      <c r="X459" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="5">
+      <c r="Y459" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="5">
+      <c r="Z459" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="5">
+      <c r="AA459" s="63">
         <v>60</v>
       </c>
-      <c r="AH459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="5">
+      <c r="AH459" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="63">
         <v>459</v>
       </c>
-      <c r="B460" s="5">
+      <c r="B460" s="63">
         <v>10376</v>
       </c>
-      <c r="F460" s="5">
-        <v>1</v>
-      </c>
-      <c r="G460" s="5" t="s">
+      <c r="F460" s="63">
+        <v>1</v>
+      </c>
+      <c r="G460" s="63" t="s">
         <v>1578</v>
       </c>
-      <c r="I460" s="5" t="s">
+      <c r="I460" s="63" t="s">
         <v>1579</v>
       </c>
-      <c r="J460" s="5" t="s">
+      <c r="J460" s="63" t="s">
         <v>1580</v>
       </c>
-      <c r="L460" s="5">
+      <c r="L460" s="63">
         <v>-31</v>
       </c>
-      <c r="M460" s="5">
-        <v>0</v>
-      </c>
-      <c r="N460" s="5">
-        <v>0</v>
-      </c>
-      <c r="O460" s="5" t="s">
+      <c r="M460" s="63">
+        <v>0</v>
+      </c>
+      <c r="N460" s="63">
+        <v>0</v>
+      </c>
+      <c r="O460" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="5">
+      <c r="P460" s="63">
         <v>49800</v>
       </c>
-      <c r="Q460" s="5" t="s">
+      <c r="Q460" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="10" t="s">
+      <c r="R460" s="64" t="s">
         <v>1581</v>
       </c>
-      <c r="W460" s="5" t="s">
+      <c r="W460" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="5">
+      <c r="X460" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="5">
+      <c r="Y460" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="5">
+      <c r="Z460" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="5">
+      <c r="AH460" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="63">
         <v>460</v>
       </c>
-      <c r="B461" s="5">
+      <c r="B461" s="63">
         <v>10377</v>
       </c>
-      <c r="F461" s="5">
-        <v>1</v>
-      </c>
-      <c r="G461" s="5" t="s">
+      <c r="F461" s="63">
+        <v>1</v>
+      </c>
+      <c r="G461" s="63" t="s">
         <v>1582</v>
       </c>
-      <c r="I461" s="5" t="s">
+      <c r="I461" s="63" t="s">
         <v>1583</v>
       </c>
-      <c r="J461" s="5" t="s">
+      <c r="J461" s="63" t="s">
         <v>1584</v>
       </c>
-      <c r="L461" s="5">
+      <c r="L461" s="63">
         <v>-31</v>
       </c>
-      <c r="M461" s="5">
-        <v>0</v>
-      </c>
-      <c r="N461" s="5">
-        <v>0</v>
-      </c>
-      <c r="O461" s="5" t="s">
+      <c r="M461" s="63">
+        <v>0</v>
+      </c>
+      <c r="N461" s="63">
+        <v>0</v>
+      </c>
+      <c r="O461" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="5">
+      <c r="P461" s="63">
         <v>49800</v>
       </c>
-      <c r="Q461" s="5" t="s">
+      <c r="Q461" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R461" s="10" t="s">
+      <c r="R461" s="64" t="s">
         <v>1585</v>
       </c>
-      <c r="W461" s="5" t="s">
+      <c r="W461" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="5">
+      <c r="X461" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="5">
+      <c r="Y461" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="5">
+      <c r="Z461" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="5">
+      <c r="AA461" s="63">
         <v>61</v>
       </c>
-      <c r="AH461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="5">
+      <c r="AH461" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="63">
         <v>461</v>
       </c>
-      <c r="B462" s="5">
+      <c r="B462" s="63">
         <v>10378</v>
       </c>
-      <c r="F462" s="5">
-        <v>1</v>
-      </c>
-      <c r="G462" s="5" t="s">
+      <c r="F462" s="63">
+        <v>1</v>
+      </c>
+      <c r="G462" s="63" t="s">
         <v>1586</v>
       </c>
-      <c r="I462" s="5" t="s">
+      <c r="I462" s="63" t="s">
         <v>1587</v>
       </c>
-      <c r="J462" s="5" t="s">
+      <c r="J462" s="63" t="s">
         <v>1588</v>
       </c>
-      <c r="L462" s="5">
+      <c r="L462" s="63">
         <v>-31</v>
       </c>
-      <c r="M462" s="5">
-        <v>0</v>
-      </c>
-      <c r="N462" s="5">
-        <v>0</v>
-      </c>
-      <c r="O462" s="5" t="s">
+      <c r="M462" s="63">
+        <v>0</v>
+      </c>
+      <c r="N462" s="63">
+        <v>0</v>
+      </c>
+      <c r="O462" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="5">
+      <c r="P462" s="63">
         <v>99800</v>
       </c>
-      <c r="Q462" s="5" t="s">
+      <c r="Q462" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R462" s="10" t="s">
+      <c r="R462" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="W462" s="5" t="s">
+      <c r="W462" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="5">
+      <c r="X462" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="5">
+      <c r="Y462" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="5">
+      <c r="Z462" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="5">
+      <c r="AA462" s="63">
         <v>62</v>
       </c>
-      <c r="AH462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="5">
+      <c r="AH462" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="63">
         <v>462</v>
       </c>
-      <c r="B463" s="5">
+      <c r="B463" s="63">
         <v>10379</v>
       </c>
-      <c r="F463" s="5">
-        <v>1</v>
-      </c>
-      <c r="G463" s="5" t="s">
+      <c r="F463" s="63">
+        <v>1</v>
+      </c>
+      <c r="G463" s="63" t="s">
         <v>1590</v>
       </c>
-      <c r="I463" s="5" t="s">
+      <c r="I463" s="63" t="s">
         <v>1591</v>
       </c>
-      <c r="J463" s="5" t="s">
+      <c r="J463" s="63" t="s">
         <v>1592</v>
       </c>
-      <c r="L463" s="5">
+      <c r="L463" s="63">
         <v>-31</v>
       </c>
-      <c r="M463" s="5">
-        <v>0</v>
-      </c>
-      <c r="N463" s="5">
-        <v>0</v>
-      </c>
-      <c r="O463" s="5" t="s">
+      <c r="M463" s="63">
+        <v>0</v>
+      </c>
+      <c r="N463" s="63">
+        <v>0</v>
+      </c>
+      <c r="O463" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="5">
+      <c r="P463" s="63">
         <v>99800</v>
       </c>
-      <c r="Q463" s="5" t="s">
+      <c r="Q463" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R463" s="10" t="s">
+      <c r="R463" s="64" t="s">
         <v>1593</v>
       </c>
-      <c r="W463" s="5" t="s">
+      <c r="W463" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="5">
+      <c r="X463" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="5">
+      <c r="Y463" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="5">
+      <c r="Z463" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="5">
+      <c r="AH463" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="63">
         <v>463</v>
       </c>
-      <c r="B464" s="5">
+      <c r="B464" s="63">
         <v>10380</v>
       </c>
-      <c r="F464" s="5">
-        <v>1</v>
-      </c>
-      <c r="G464" s="5" t="s">
+      <c r="F464" s="63">
+        <v>1</v>
+      </c>
+      <c r="G464" s="63" t="s">
         <v>1594</v>
       </c>
-      <c r="I464" s="5" t="s">
+      <c r="I464" s="63" t="s">
         <v>1595</v>
       </c>
-      <c r="J464" s="5" t="s">
+      <c r="J464" s="63" t="s">
         <v>1596</v>
       </c>
-      <c r="L464" s="5">
+      <c r="L464" s="63">
         <v>-31</v>
       </c>
-      <c r="M464" s="5">
-        <v>0</v>
-      </c>
-      <c r="N464" s="5">
-        <v>0</v>
-      </c>
-      <c r="O464" s="5" t="s">
+      <c r="M464" s="63">
+        <v>0</v>
+      </c>
+      <c r="N464" s="63">
+        <v>0</v>
+      </c>
+      <c r="O464" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="5">
+      <c r="P464" s="63">
         <v>99800</v>
       </c>
-      <c r="Q464" s="5" t="s">
+      <c r="Q464" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="10" t="s">
+      <c r="R464" s="64" t="s">
         <v>1597</v>
       </c>
-      <c r="W464" s="5" t="s">
+      <c r="W464" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="5">
+      <c r="X464" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="5">
+      <c r="Y464" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="5">
+      <c r="Z464" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="5">
+      <c r="AA464" s="63">
         <v>63</v>
       </c>
-      <c r="AH464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="5">
+      <c r="AH464" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="63">
         <v>464</v>
       </c>
-      <c r="B465" s="5">
+      <c r="B465" s="63">
         <v>10381</v>
       </c>
-      <c r="F465" s="5">
-        <v>1</v>
-      </c>
-      <c r="G465" s="5" t="s">
+      <c r="F465" s="63">
+        <v>1</v>
+      </c>
+      <c r="G465" s="63" t="s">
         <v>1598</v>
       </c>
-      <c r="I465" s="5" t="s">
+      <c r="I465" s="63" t="s">
         <v>1599</v>
       </c>
-      <c r="J465" s="5" t="s">
+      <c r="J465" s="63" t="s">
         <v>1600</v>
       </c>
-      <c r="L465" s="5">
+      <c r="L465" s="63">
         <v>-31</v>
       </c>
-      <c r="M465" s="5">
-        <v>0</v>
-      </c>
-      <c r="N465" s="5">
-        <v>0</v>
-      </c>
-      <c r="O465" s="5" t="s">
+      <c r="M465" s="63">
+        <v>0</v>
+      </c>
+      <c r="N465" s="63">
+        <v>0</v>
+      </c>
+      <c r="O465" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="5">
+      <c r="P465" s="63">
         <v>249800</v>
       </c>
-      <c r="Q465" s="5" t="s">
+      <c r="Q465" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R465" s="10" t="s">
+      <c r="R465" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="W465" s="5" t="s">
+      <c r="W465" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="5">
+      <c r="X465" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="5">
+      <c r="Y465" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="5">
+      <c r="Z465" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="5">
+      <c r="AA465" s="63">
         <v>64</v>
       </c>
-      <c r="AH465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="5">
+      <c r="AH465" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="63">
         <v>465</v>
       </c>
-      <c r="B466" s="5">
+      <c r="B466" s="63">
         <v>10382</v>
       </c>
-      <c r="F466" s="5">
-        <v>1</v>
-      </c>
-      <c r="G466" s="5" t="s">
+      <c r="F466" s="63">
+        <v>1</v>
+      </c>
+      <c r="G466" s="63" t="s">
         <v>1602</v>
       </c>
-      <c r="I466" s="5" t="s">
+      <c r="I466" s="63" t="s">
         <v>1603</v>
       </c>
-      <c r="J466" s="5" t="s">
+      <c r="J466" s="63" t="s">
         <v>1604</v>
       </c>
-      <c r="L466" s="5">
+      <c r="L466" s="63">
         <v>-31</v>
       </c>
-      <c r="M466" s="5">
-        <v>0</v>
-      </c>
-      <c r="N466" s="5">
-        <v>0</v>
-      </c>
-      <c r="O466" s="5" t="s">
+      <c r="M466" s="63">
+        <v>0</v>
+      </c>
+      <c r="N466" s="63">
+        <v>0</v>
+      </c>
+      <c r="O466" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="5">
+      <c r="P466" s="63">
         <v>249800</v>
       </c>
-      <c r="Q466" s="5" t="s">
+      <c r="Q466" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="10" t="s">
+      <c r="R466" s="64" t="s">
         <v>1605</v>
       </c>
-      <c r="W466" s="5" t="s">
+      <c r="W466" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="5">
+      <c r="X466" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="5">
+      <c r="Y466" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="5">
+      <c r="Z466" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="5">
+      <c r="AH466" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="63">
         <v>466</v>
       </c>
-      <c r="B467" s="5">
+      <c r="B467" s="63">
         <v>10383</v>
       </c>
-      <c r="F467" s="5">
-        <v>1</v>
-      </c>
-      <c r="G467" s="5" t="s">
+      <c r="F467" s="63">
+        <v>1</v>
+      </c>
+      <c r="G467" s="63" t="s">
         <v>1606</v>
       </c>
-      <c r="I467" s="5" t="s">
+      <c r="I467" s="63" t="s">
         <v>1607</v>
       </c>
-      <c r="J467" s="5" t="s">
+      <c r="J467" s="63" t="s">
         <v>1608</v>
       </c>
-      <c r="L467" s="5">
+      <c r="L467" s="63">
         <v>-31</v>
       </c>
-      <c r="M467" s="5">
-        <v>0</v>
-      </c>
-      <c r="N467" s="5">
-        <v>0</v>
-      </c>
-      <c r="O467" s="5" t="s">
+      <c r="M467" s="63">
+        <v>0</v>
+      </c>
+      <c r="N467" s="63">
+        <v>0</v>
+      </c>
+      <c r="O467" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="5">
+      <c r="P467" s="63">
         <v>249800</v>
       </c>
-      <c r="Q467" s="5" t="s">
+      <c r="Q467" s="63" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="10" t="s">
+      <c r="R467" s="64" t="s">
         <v>1609</v>
       </c>
-      <c r="W467" s="5" t="s">
+      <c r="W467" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="5">
+      <c r="X467" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="5">
+      <c r="Y467" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="5">
+      <c r="Z467" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="5">
+      <c r="AA467" s="63">
         <v>65</v>
       </c>
-      <c r="AH467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="5">
+      <c r="AH467" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="63">
         <v>467</v>
       </c>
-      <c r="B468" s="5">
+      <c r="B468" s="63">
         <v>10384</v>
       </c>
-      <c r="F468" s="5">
-        <v>1</v>
-      </c>
-      <c r="G468" s="5" t="s">
+      <c r="F468" s="63">
+        <v>1</v>
+      </c>
+      <c r="G468" s="63" t="s">
         <v>1610</v>
       </c>
-      <c r="I468" s="5" t="s">
+      <c r="I468" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J468" s="5" t="s">
+      <c r="J468" s="63" t="s">
         <v>1613</v>
       </c>
-      <c r="L468" s="5">
+      <c r="L468" s="63">
         <v>-31</v>
       </c>
-      <c r="M468" s="5">
-        <v>0</v>
-      </c>
-      <c r="N468" s="5">
-        <v>0</v>
-      </c>
-      <c r="O468" s="5" t="s">
+      <c r="M468" s="63">
+        <v>0</v>
+      </c>
+      <c r="N468" s="63">
+        <v>0</v>
+      </c>
+      <c r="O468" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="5">
+      <c r="P468" s="63">
         <v>600</v>
       </c>
-      <c r="Q468" s="5" t="s">
+      <c r="Q468" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R468" s="10" t="s">
+      <c r="R468" s="64" t="s">
         <v>1614</v>
       </c>
-      <c r="W468" s="5" t="s">
+      <c r="W468" s="63" t="s">
         <v>1615</v>
       </c>
-      <c r="X468" s="5">
+      <c r="X468" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="5">
+      <c r="Y468" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="5">
+      <c r="Z468" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="5">
+      <c r="AH468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="63">
         <v>468</v>
       </c>
-      <c r="B469" s="5">
+      <c r="B469" s="63">
         <v>10385</v>
       </c>
-      <c r="F469" s="5">
-        <v>1</v>
-      </c>
-      <c r="G469" s="5" t="s">
+      <c r="F469" s="63">
+        <v>1</v>
+      </c>
+      <c r="G469" s="63" t="s">
         <v>1616</v>
       </c>
-      <c r="I469" s="5" t="s">
+      <c r="I469" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J469" s="5" t="s">
+      <c r="J469" s="63" t="s">
         <v>1617</v>
       </c>
-      <c r="L469" s="5">
+      <c r="L469" s="63">
         <v>-31</v>
       </c>
-      <c r="M469" s="5">
-        <v>0</v>
-      </c>
-      <c r="N469" s="5">
-        <v>0</v>
-      </c>
-      <c r="O469" s="5" t="s">
+      <c r="M469" s="63">
+        <v>0</v>
+      </c>
+      <c r="N469" s="63">
+        <v>0</v>
+      </c>
+      <c r="O469" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="5">
+      <c r="P469" s="63">
         <v>3000</v>
       </c>
-      <c r="Q469" s="5" t="s">
+      <c r="Q469" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R469" s="10" t="s">
+      <c r="R469" s="64" t="s">
         <v>1618</v>
       </c>
-      <c r="W469" s="5" t="s">
+      <c r="W469" s="63" t="s">
         <v>1615</v>
       </c>
-      <c r="X469" s="5">
+      <c r="X469" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="5">
+      <c r="Y469" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="5">
+      <c r="Z469" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="5">
+      <c r="AH469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="63">
         <v>469</v>
       </c>
-      <c r="B470" s="5">
+      <c r="B470" s="63">
         <v>10386</v>
       </c>
-      <c r="F470" s="5">
-        <v>1</v>
-      </c>
-      <c r="G470" s="5" t="s">
+      <c r="F470" s="63">
+        <v>1</v>
+      </c>
+      <c r="G470" s="63" t="s">
         <v>1619</v>
       </c>
-      <c r="I470" s="5" t="s">
+      <c r="I470" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J470" s="5" t="s">
+      <c r="J470" s="63" t="s">
         <v>1620</v>
       </c>
-      <c r="L470" s="5">
+      <c r="L470" s="63">
         <v>-31</v>
       </c>
-      <c r="M470" s="5">
-        <v>0</v>
-      </c>
-      <c r="N470" s="5">
-        <v>0</v>
-      </c>
-      <c r="O470" s="5" t="s">
+      <c r="M470" s="63">
+        <v>0</v>
+      </c>
+      <c r="N470" s="63">
+        <v>0</v>
+      </c>
+      <c r="O470" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="5">
+      <c r="P470" s="63">
         <v>6800</v>
       </c>
-      <c r="Q470" s="5" t="s">
+      <c r="Q470" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R470" s="10" t="s">
+      <c r="R470" s="64" t="s">
         <v>1621</v>
       </c>
-      <c r="W470" s="5" t="s">
+      <c r="W470" s="63" t="s">
         <v>1615</v>
       </c>
-      <c r="X470" s="5">
+      <c r="X470" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="5">
+      <c r="Y470" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="5">
+      <c r="Z470" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="5">
+      <c r="AH470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="63">
         <v>470</v>
       </c>
-      <c r="B471" s="5">
+      <c r="B471" s="63">
         <v>10387</v>
       </c>
-      <c r="F471" s="5">
-        <v>1</v>
-      </c>
-      <c r="G471" s="5" t="s">
+      <c r="F471" s="63">
+        <v>1</v>
+      </c>
+      <c r="G471" s="63" t="s">
         <v>1622</v>
       </c>
-      <c r="I471" s="5" t="s">
+      <c r="I471" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J471" s="5" t="s">
+      <c r="J471" s="63" t="s">
         <v>1623</v>
       </c>
-      <c r="L471" s="5">
+      <c r="L471" s="63">
         <v>-31</v>
       </c>
-      <c r="M471" s="5">
-        <v>0</v>
-      </c>
-      <c r="N471" s="5">
-        <v>0</v>
-      </c>
-      <c r="O471" s="5" t="s">
+      <c r="M471" s="63">
+        <v>0</v>
+      </c>
+      <c r="N471" s="63">
+        <v>0</v>
+      </c>
+      <c r="O471" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="5">
+      <c r="P471" s="63">
         <v>9800</v>
       </c>
-      <c r="Q471" s="5" t="s">
+      <c r="Q471" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R471" s="10" t="s">
+      <c r="R471" s="64" t="s">
         <v>1624</v>
       </c>
-      <c r="W471" s="5" t="s">
+      <c r="W471" s="63" t="s">
         <v>1625</v>
       </c>
-      <c r="X471" s="5">
+      <c r="X471" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="5">
+      <c r="Y471" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="5">
+      <c r="Z471" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="5">
+      <c r="AH471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="63">
         <v>471</v>
       </c>
-      <c r="B472" s="5">
+      <c r="B472" s="63">
         <v>10388</v>
       </c>
-      <c r="F472" s="5">
-        <v>1</v>
-      </c>
-      <c r="G472" s="5" t="s">
+      <c r="F472" s="63">
+        <v>1</v>
+      </c>
+      <c r="G472" s="63" t="s">
         <v>1626</v>
       </c>
-      <c r="I472" s="5" t="s">
+      <c r="I472" s="63" t="s">
         <v>1611</v>
       </c>
-      <c r="J472" s="5" t="s">
+      <c r="J472" s="63" t="s">
         <v>1627</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="63">
         <v>-31</v>
       </c>
-      <c r="M472" s="5">
-        <v>0</v>
-      </c>
-      <c r="N472" s="5">
-        <v>0</v>
-      </c>
-      <c r="O472" s="5" t="s">
+      <c r="M472" s="63">
+        <v>0</v>
+      </c>
+      <c r="N472" s="63">
+        <v>0</v>
+      </c>
+      <c r="O472" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="5">
+      <c r="P472" s="63">
         <v>19800</v>
       </c>
-      <c r="Q472" s="5" t="s">
+      <c r="Q472" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R472" s="10" t="s">
+      <c r="R472" s="64" t="s">
         <v>1628</v>
       </c>
-      <c r="W472" s="5" t="s">
+      <c r="W472" s="63" t="s">
         <v>1625</v>
       </c>
-      <c r="X472" s="5">
+      <c r="X472" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="5">
+      <c r="Y472" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="5">
+      <c r="Z472" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="5">
+      <c r="AH472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="63">
         <v>472</v>
       </c>
-      <c r="B473" s="5">
+      <c r="B473" s="63">
         <v>10389</v>
       </c>
-      <c r="F473" s="5">
-        <v>1</v>
-      </c>
-      <c r="G473" s="5" t="s">
+      <c r="F473" s="63">
+        <v>1</v>
+      </c>
+      <c r="G473" s="63" t="s">
         <v>1629</v>
       </c>
-      <c r="I473" s="5" t="s">
+      <c r="I473" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J473" s="5" t="s">
+      <c r="J473" s="63" t="s">
         <v>1630</v>
       </c>
-      <c r="L473" s="5">
+      <c r="L473" s="63">
         <v>-31</v>
       </c>
-      <c r="M473" s="5">
-        <v>0</v>
-      </c>
-      <c r="N473" s="5">
-        <v>0</v>
-      </c>
-      <c r="O473" s="5" t="s">
+      <c r="M473" s="63">
+        <v>0</v>
+      </c>
+      <c r="N473" s="63">
+        <v>0</v>
+      </c>
+      <c r="O473" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="5">
+      <c r="P473" s="63">
         <v>49800</v>
       </c>
-      <c r="Q473" s="5" t="s">
+      <c r="Q473" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R473" s="10" t="s">
+      <c r="R473" s="64" t="s">
         <v>1631</v>
       </c>
-      <c r="W473" s="5" t="s">
+      <c r="W473" s="63" t="s">
         <v>1625</v>
       </c>
-      <c r="X473" s="5">
+      <c r="X473" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="5">
+      <c r="Y473" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="5">
+      <c r="Z473" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="5">
+      <c r="AH473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="63">
         <v>473</v>
       </c>
-      <c r="B474" s="5">
+      <c r="B474" s="63">
         <v>10390</v>
       </c>
-      <c r="F474" s="5">
-        <v>1</v>
-      </c>
-      <c r="G474" s="5" t="s">
+      <c r="F474" s="63">
+        <v>1</v>
+      </c>
+      <c r="G474" s="63" t="s">
         <v>1632</v>
       </c>
-      <c r="I474" s="5" t="s">
+      <c r="I474" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J474" s="5" t="s">
+      <c r="J474" s="63" t="s">
         <v>1633</v>
       </c>
-      <c r="L474" s="5">
+      <c r="L474" s="63">
         <v>-31</v>
       </c>
-      <c r="M474" s="5">
-        <v>0</v>
-      </c>
-      <c r="N474" s="5">
-        <v>0</v>
-      </c>
-      <c r="O474" s="5" t="s">
+      <c r="M474" s="63">
+        <v>0</v>
+      </c>
+      <c r="N474" s="63">
+        <v>0</v>
+      </c>
+      <c r="O474" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="5">
+      <c r="P474" s="63">
         <v>99800</v>
       </c>
-      <c r="Q474" s="5" t="s">
+      <c r="Q474" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R474" s="10" t="s">
+      <c r="R474" s="64" t="s">
         <v>1634</v>
       </c>
-      <c r="W474" s="5" t="s">
+      <c r="W474" s="63" t="s">
         <v>1625</v>
       </c>
-      <c r="X474" s="5">
+      <c r="X474" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="5">
+      <c r="Y474" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="5">
+      <c r="Z474" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="5">
+      <c r="AH474" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="63">
         <v>474</v>
       </c>
-      <c r="B475" s="5">
+      <c r="B475" s="63">
         <v>10391</v>
       </c>
-      <c r="F475" s="5">
-        <v>1</v>
-      </c>
-      <c r="G475" s="5" t="s">
+      <c r="F475" s="63">
+        <v>1</v>
+      </c>
+      <c r="G475" s="63" t="s">
         <v>1635</v>
       </c>
-      <c r="I475" s="5" t="s">
+      <c r="I475" s="63" t="s">
         <v>1612</v>
       </c>
-      <c r="J475" s="5" t="s">
+      <c r="J475" s="63" t="s">
         <v>1689</v>
       </c>
-      <c r="L475" s="5">
+      <c r="L475" s="63">
         <v>-31</v>
       </c>
-      <c r="M475" s="5">
-        <v>0</v>
-      </c>
-      <c r="N475" s="5">
-        <v>0</v>
-      </c>
-      <c r="O475" s="5" t="s">
+      <c r="M475" s="63">
+        <v>0</v>
+      </c>
+      <c r="N475" s="63">
+        <v>0</v>
+      </c>
+      <c r="O475" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="5">
+      <c r="P475" s="63">
         <v>249800</v>
       </c>
-      <c r="Q475" s="5" t="s">
+      <c r="Q475" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="R475" s="10" t="s">
+      <c r="R475" s="64" t="s">
         <v>1688</v>
       </c>
-      <c r="W475" s="5" t="s">
+      <c r="W475" s="63" t="s">
         <v>1625</v>
       </c>
-      <c r="X475" s="5">
+      <c r="X475" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="5">
+      <c r="Y475" s="63">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="5">
+      <c r="Z475" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="5">
+      <c r="AH475" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="63">
         <v>1</v>
       </c>
     </row>
@@ -41798,7 +41813,7 @@
         <v>10392</v>
       </c>
       <c r="F476" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G476" s="5" t="s">
         <v>1666</v>
@@ -41863,7 +41878,7 @@
         <v>10393</v>
       </c>
       <c r="F477" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G477" s="5" t="s">
         <v>1673</v>
@@ -41928,7 +41943,7 @@
         <v>10394</v>
       </c>
       <c r="F478" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G478" s="5" t="s">
         <v>1666</v>
@@ -41993,7 +42008,7 @@
         <v>10395</v>
       </c>
       <c r="F479" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G479" s="5" t="s">
         <v>1666</v>
@@ -42058,7 +42073,7 @@
         <v>10396</v>
       </c>
       <c r="F480" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G480" s="5" t="s">
         <v>1690</v>
@@ -42120,7 +42135,7 @@
         <v>10397</v>
       </c>
       <c r="F481" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>355</v>
@@ -42182,7 +42197,7 @@
         <v>10398</v>
       </c>
       <c r="F482" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>354</v>
@@ -42244,7 +42259,7 @@
         <v>10399</v>
       </c>
       <c r="F483" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483" s="5" t="s">
         <v>353</v>
@@ -42306,7 +42321,7 @@
         <v>10400</v>
       </c>
       <c r="F484" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G484" s="5" t="s">
         <v>1700</v>
@@ -42368,7 +42383,7 @@
         <v>10401</v>
       </c>
       <c r="F485" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485" s="5" t="s">
         <v>1704</v>
@@ -42430,7 +42445,7 @@
         <v>10402</v>
       </c>
       <c r="F486" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486" s="5" t="s">
         <v>1808</v>
@@ -42495,7 +42510,7 @@
         <v>10403</v>
       </c>
       <c r="F487" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487" s="5" t="s">
         <v>1812</v>
@@ -42560,7 +42575,7 @@
         <v>10404</v>
       </c>
       <c r="F488" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>1816</v>
@@ -42625,7 +42640,7 @@
         <v>10405</v>
       </c>
       <c r="F489" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>1819</v>
@@ -42690,7 +42705,7 @@
         <v>10406</v>
       </c>
       <c r="F490" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>1469</v>
@@ -42755,7 +42770,7 @@
         <v>10407</v>
       </c>
       <c r="F491" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>1826</v>
@@ -42820,7 +42835,7 @@
         <v>10408</v>
       </c>
       <c r="F492" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G492" s="5" t="s">
         <v>1461</v>
@@ -42877,263 +42892,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="5">
+    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="63">
         <v>492</v>
       </c>
-      <c r="B493" s="5">
+      <c r="B493" s="63">
         <v>10409</v>
       </c>
-      <c r="F493" s="5">
-        <v>1</v>
-      </c>
-      <c r="G493" s="5" t="s">
+      <c r="F493" s="63">
+        <v>1</v>
+      </c>
+      <c r="G493" s="63" t="s">
         <v>1866</v>
       </c>
-      <c r="I493" s="5" t="s">
+      <c r="I493" s="63" t="s">
         <v>1867</v>
       </c>
-      <c r="J493" s="5" t="s">
+      <c r="J493" s="63" t="s">
         <v>1868</v>
       </c>
-      <c r="L493" s="5">
+      <c r="L493" s="63">
         <v>-31</v>
       </c>
-      <c r="M493" s="5">
-        <v>0</v>
-      </c>
-      <c r="N493" s="5">
-        <v>0</v>
-      </c>
-      <c r="O493" s="5" t="s">
+      <c r="M493" s="63">
+        <v>0</v>
+      </c>
+      <c r="N493" s="63">
+        <v>0</v>
+      </c>
+      <c r="O493" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="5">
+      <c r="P493" s="63">
         <v>49800</v>
       </c>
-      <c r="Q493" s="5" t="s">
+      <c r="Q493" s="63" t="s">
         <v>1869</v>
       </c>
-      <c r="R493" s="10" t="s">
+      <c r="R493" s="64" t="s">
         <v>1871</v>
       </c>
-      <c r="W493" s="5" t="s">
+      <c r="W493" s="63" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="5">
+      <c r="X493" s="63">
         <v>200</v>
       </c>
-      <c r="Y493" s="5">
+      <c r="Y493" s="63">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="5">
+      <c r="Z493" s="63">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="5">
+      <c r="AH493" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="63">
         <v>493</v>
       </c>
-      <c r="B494" s="5">
+      <c r="B494" s="63">
         <v>10410</v>
       </c>
-      <c r="F494" s="5">
-        <v>1</v>
-      </c>
-      <c r="G494" s="5" t="s">
+      <c r="F494" s="63">
+        <v>1</v>
+      </c>
+      <c r="G494" s="63" t="s">
         <v>1866</v>
       </c>
-      <c r="I494" s="5" t="s">
+      <c r="I494" s="63" t="s">
         <v>1870</v>
       </c>
-      <c r="J494" s="5" t="s">
+      <c r="J494" s="63" t="s">
         <v>1868</v>
       </c>
-      <c r="L494" s="5">
+      <c r="L494" s="63">
         <v>-31</v>
       </c>
-      <c r="M494" s="5">
-        <v>0</v>
-      </c>
-      <c r="N494" s="5">
-        <v>0</v>
-      </c>
-      <c r="O494" s="5" t="s">
+      <c r="M494" s="63">
+        <v>0</v>
+      </c>
+      <c r="N494" s="63">
+        <v>0</v>
+      </c>
+      <c r="O494" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="5">
+      <c r="P494" s="63">
         <v>99800</v>
       </c>
-      <c r="Q494" s="5" t="s">
+      <c r="Q494" s="63" t="s">
         <v>1869</v>
       </c>
-      <c r="R494" s="10" t="s">
+      <c r="R494" s="64" t="s">
         <v>1871</v>
       </c>
-      <c r="W494" s="5" t="s">
+      <c r="W494" s="63" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="5">
+      <c r="X494" s="63">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="5">
+      <c r="Y494" s="63">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="5">
+      <c r="Z494" s="63">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="5">
+      <c r="AH494" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="63">
         <v>494</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495" s="63">
         <v>10411</v>
       </c>
-      <c r="F495" s="5">
-        <v>1</v>
-      </c>
-      <c r="G495" s="5" t="s">
+      <c r="F495" s="63">
+        <v>1</v>
+      </c>
+      <c r="G495" s="63" t="s">
         <v>1887</v>
       </c>
-      <c r="J495" s="5" t="s">
+      <c r="J495" s="63" t="s">
         <v>1888</v>
       </c>
-      <c r="L495" s="5">
+      <c r="L495" s="63">
         <v>-31</v>
       </c>
-      <c r="M495" s="5">
-        <v>0</v>
-      </c>
-      <c r="N495" s="5">
-        <v>0</v>
-      </c>
-      <c r="O495" s="5" t="s">
+      <c r="M495" s="63">
+        <v>0</v>
+      </c>
+      <c r="N495" s="63">
+        <v>0</v>
+      </c>
+      <c r="O495" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="5">
+      <c r="P495" s="63">
         <v>79800</v>
       </c>
-      <c r="Q495" s="5" t="s">
+      <c r="Q495" s="63" t="s">
         <v>1642</v>
       </c>
-      <c r="R495" s="10" t="s">
+      <c r="R495" s="64" t="s">
         <v>1889</v>
       </c>
-      <c r="W495" s="5" t="s">
+      <c r="W495" s="63" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="5">
+      <c r="X495" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="5">
+      <c r="Y495" s="63">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="5">
+      <c r="Z495" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="5">
+      <c r="AA495" s="63">
         <v>14</v>
       </c>
-      <c r="AH495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="5">
+      <c r="AH495" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="63">
         <v>495</v>
       </c>
-      <c r="B496" s="5">
+      <c r="B496" s="63">
         <v>10412</v>
       </c>
-      <c r="F496" s="5">
-        <v>1</v>
-      </c>
-      <c r="G496" s="5" t="s">
+      <c r="F496" s="63">
+        <v>1</v>
+      </c>
+      <c r="G496" s="63" t="s">
         <v>1890</v>
       </c>
-      <c r="J496" s="5" t="s">
+      <c r="J496" s="63" t="s">
         <v>1891</v>
       </c>
-      <c r="L496" s="5">
+      <c r="L496" s="63">
         <v>-31</v>
       </c>
-      <c r="M496" s="5">
-        <v>0</v>
-      </c>
-      <c r="N496" s="5">
-        <v>0</v>
-      </c>
-      <c r="O496" s="5" t="s">
+      <c r="M496" s="63">
+        <v>0</v>
+      </c>
+      <c r="N496" s="63">
+        <v>0</v>
+      </c>
+      <c r="O496" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="5">
+      <c r="P496" s="63">
         <v>89800</v>
       </c>
-      <c r="Q496" s="5" t="s">
+      <c r="Q496" s="63" t="s">
         <v>1642</v>
       </c>
-      <c r="R496" s="10" t="s">
+      <c r="R496" s="64" t="s">
         <v>1892</v>
       </c>
-      <c r="W496" s="5" t="s">
+      <c r="W496" s="63" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="5">
+      <c r="X496" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="5">
+      <c r="Y496" s="63">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="5">
+      <c r="Z496" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="5">
+      <c r="AA496" s="63">
         <v>14</v>
       </c>
-      <c r="AH496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="5">
+      <c r="AH496" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="63">
         <v>1</v>
       </c>
     </row>
@@ -43145,7 +43160,7 @@
         <v>10413</v>
       </c>
       <c r="F497" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G497" s="5" t="s">
         <v>1894</v>
@@ -43213,7 +43228,7 @@
         <v>10414</v>
       </c>
       <c r="F498" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
         <v>1900</v>
@@ -43281,7 +43296,7 @@
         <v>10415</v>
       </c>
       <c r="F499" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>1900</v>
@@ -43349,7 +43364,7 @@
         <v>10416</v>
       </c>
       <c r="F500" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G500" s="5" t="s">
         <v>1894</v>
@@ -43417,7 +43432,7 @@
         <v>10417</v>
       </c>
       <c r="F501" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>1900</v>
@@ -43485,7 +43500,7 @@
         <v>10418</v>
       </c>
       <c r="F502" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>1900</v>
@@ -43553,7 +43568,7 @@
         <v>10419</v>
       </c>
       <c r="F503" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>1894</v>
@@ -43621,7 +43636,7 @@
         <v>10420</v>
       </c>
       <c r="F504" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G504" s="5" t="s">
         <v>1893</v>
@@ -43689,7 +43704,7 @@
         <v>10421</v>
       </c>
       <c r="F505" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>1894</v>
@@ -43757,7 +43772,7 @@
         <v>10422</v>
       </c>
       <c r="F506" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G506" s="5" t="s">
         <v>1894</v>
@@ -43825,7 +43840,7 @@
         <v>10423</v>
       </c>
       <c r="F507" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>1900</v>
@@ -43893,7 +43908,7 @@
         <v>10424</v>
       </c>
       <c r="F508" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G508" s="5" t="s">
         <v>1893</v>
@@ -43953,183 +43968,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="5">
+    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="63">
         <v>508</v>
       </c>
-      <c r="B509" s="5">
+      <c r="B509" s="63">
         <v>10425</v>
       </c>
-      <c r="F509" s="5">
-        <v>1</v>
-      </c>
-      <c r="G509" s="5" t="s">
+      <c r="F509" s="63">
+        <v>1</v>
+      </c>
+      <c r="G509" s="63" t="s">
         <v>1931</v>
       </c>
-      <c r="J509" s="5" t="s">
+      <c r="J509" s="63" t="s">
         <v>1932</v>
       </c>
-      <c r="L509" s="5">
+      <c r="L509" s="63">
         <v>-4</v>
       </c>
-      <c r="M509" s="5">
-        <v>1</v>
-      </c>
-      <c r="N509" s="5">
-        <v>0</v>
-      </c>
-      <c r="O509" s="5" t="s">
+      <c r="M509" s="63">
+        <v>1</v>
+      </c>
+      <c r="N509" s="63">
+        <v>0</v>
+      </c>
+      <c r="O509" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="5">
+      <c r="P509" s="63">
         <v>1800</v>
       </c>
-      <c r="R509" s="10"/>
-      <c r="W509" s="5" t="s">
+      <c r="R509" s="64"/>
+      <c r="W509" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="14" t="s">
+      <c r="X509" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="5">
+      <c r="Y509" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="5" t="s">
+      <c r="AB509" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="5" t="s">
+      <c r="AC509" s="63" t="s">
         <v>1933</v>
       </c>
-      <c r="AD509" s="10" t="s">
+      <c r="AD509" s="64" t="s">
         <v>1934</v>
       </c>
-      <c r="AH509" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="5">
+      <c r="AH509" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="63">
         <v>509</v>
       </c>
-      <c r="B510" s="5">
+      <c r="B510" s="63">
         <v>10426</v>
       </c>
-      <c r="F510" s="5">
-        <v>1</v>
-      </c>
-      <c r="G510" s="5" t="s">
+      <c r="F510" s="63">
+        <v>1</v>
+      </c>
+      <c r="G510" s="63" t="s">
         <v>1935</v>
       </c>
-      <c r="J510" s="5" t="s">
+      <c r="J510" s="63" t="s">
         <v>1936</v>
       </c>
-      <c r="L510" s="5">
+      <c r="L510" s="63">
         <v>-4</v>
       </c>
-      <c r="M510" s="5">
-        <v>1</v>
-      </c>
-      <c r="N510" s="5">
-        <v>0</v>
-      </c>
-      <c r="O510" s="5" t="s">
+      <c r="M510" s="63">
+        <v>1</v>
+      </c>
+      <c r="N510" s="63">
+        <v>0</v>
+      </c>
+      <c r="O510" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="5">
+      <c r="P510" s="63">
         <v>4800</v>
       </c>
-      <c r="R510" s="10"/>
-      <c r="W510" s="5" t="s">
+      <c r="R510" s="64"/>
+      <c r="W510" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="14" t="s">
+      <c r="X510" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="5">
+      <c r="Y510" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="5" t="s">
+      <c r="AB510" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="5" t="s">
+      <c r="AC510" s="63" t="s">
         <v>1937</v>
       </c>
-      <c r="AD510" s="10" t="s">
+      <c r="AD510" s="64" t="s">
         <v>1938</v>
       </c>
-      <c r="AH510" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="5">
+      <c r="AH510" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="63">
         <v>510</v>
       </c>
-      <c r="B511" s="5">
+      <c r="B511" s="63">
         <v>10427</v>
       </c>
-      <c r="F511" s="5">
-        <v>1</v>
-      </c>
-      <c r="G511" s="5" t="s">
+      <c r="F511" s="63">
+        <v>1</v>
+      </c>
+      <c r="G511" s="63" t="s">
         <v>1939</v>
       </c>
-      <c r="J511" s="5" t="s">
+      <c r="J511" s="63" t="s">
         <v>1940</v>
       </c>
-      <c r="L511" s="5">
+      <c r="L511" s="63">
         <v>-4</v>
       </c>
-      <c r="M511" s="5">
-        <v>1</v>
-      </c>
-      <c r="N511" s="5">
-        <v>0</v>
-      </c>
-      <c r="O511" s="5" t="s">
+      <c r="M511" s="63">
+        <v>1</v>
+      </c>
+      <c r="N511" s="63">
+        <v>0</v>
+      </c>
+      <c r="O511" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="5">
+      <c r="P511" s="63">
         <v>9800</v>
       </c>
-      <c r="R511" s="10"/>
-      <c r="W511" s="5" t="s">
+      <c r="R511" s="64"/>
+      <c r="W511" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="14" t="s">
+      <c r="X511" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="5">
+      <c r="Y511" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="5" t="s">
+      <c r="AB511" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="5" t="s">
+      <c r="AC511" s="63" t="s">
         <v>1941</v>
       </c>
-      <c r="AD511" s="10" t="s">
+      <c r="AD511" s="64" t="s">
         <v>1942</v>
       </c>
-      <c r="AH511" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="5">
+      <c r="AH511" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="63">
         <v>1</v>
       </c>
     </row>
@@ -44141,7 +44156,7 @@
         <v>10428</v>
       </c>
       <c r="F512" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>1943</v>
@@ -44209,7 +44224,7 @@
         <v>10429</v>
       </c>
       <c r="F513" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
         <v>1943</v>
@@ -44277,7 +44292,7 @@
         <v>10430</v>
       </c>
       <c r="F514" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
         <v>1943</v>
@@ -44345,7 +44360,7 @@
         <v>10431</v>
       </c>
       <c r="F515" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
         <v>1943</v>
@@ -44413,7 +44428,7 @@
         <v>10432</v>
       </c>
       <c r="F516" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
         <v>1943</v>
@@ -44481,7 +44496,7 @@
         <v>10433</v>
       </c>
       <c r="F517" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
         <v>1943</v>
@@ -44549,7 +44564,7 @@
         <v>10434</v>
       </c>
       <c r="F518" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
         <v>1943</v>
@@ -44617,7 +44632,7 @@
         <v>10435</v>
       </c>
       <c r="F519" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
         <v>1943</v>
@@ -44677,881 +44692,881 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="5">
+    <row r="520" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="63">
         <v>519</v>
       </c>
-      <c r="B520" s="5">
+      <c r="B520" s="63">
         <v>10436</v>
       </c>
-      <c r="F520" s="5">
-        <v>1</v>
-      </c>
-      <c r="G520" s="5" t="s">
+      <c r="F520" s="63">
+        <v>1</v>
+      </c>
+      <c r="G520" s="63" t="s">
         <v>1974</v>
       </c>
-      <c r="I520" s="5" t="s">
+      <c r="I520" s="63" t="s">
         <v>1975</v>
       </c>
-      <c r="J520" s="5" t="s">
+      <c r="J520" s="63" t="s">
         <v>1976</v>
       </c>
-      <c r="L520" s="5">
+      <c r="L520" s="63">
         <v>-23</v>
       </c>
-      <c r="M520" s="5">
-        <v>1</v>
-      </c>
-      <c r="N520" s="5">
-        <v>0</v>
-      </c>
-      <c r="O520" s="5" t="s">
+      <c r="M520" s="63">
+        <v>1</v>
+      </c>
+      <c r="N520" s="63">
+        <v>0</v>
+      </c>
+      <c r="O520" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P520" s="5">
+      <c r="P520" s="63">
         <v>1000</v>
       </c>
-      <c r="Q520" s="5" t="s">
+      <c r="Q520" s="63" t="s">
         <v>1977</v>
       </c>
-      <c r="R520" s="10" t="s">
+      <c r="R520" s="64" t="s">
         <v>1978</v>
       </c>
-      <c r="S520" s="5" t="s">
+      <c r="S520" s="63" t="s">
         <v>1979</v>
       </c>
-      <c r="W520" s="5" t="s">
+      <c r="W520" s="63" t="s">
         <v>1980</v>
       </c>
-      <c r="X520" s="5">
+      <c r="X520" s="63">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="5">
+      <c r="Y520" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="63">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH520" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="60">
-        <v>1</v>
-      </c>
-      <c r="G521" s="60" t="s">
+      <c r="F521" s="59">
+        <v>1</v>
+      </c>
+      <c r="G521" s="59" t="s">
         <v>1982</v>
       </c>
-      <c r="I521" s="60" t="s">
+      <c r="I521" s="59" t="s">
         <v>1983</v>
       </c>
-      <c r="J521" s="60" t="s">
+      <c r="J521" s="59" t="s">
         <v>1984</v>
       </c>
-      <c r="L521" s="60">
+      <c r="L521" s="59">
         <v>-33</v>
       </c>
-      <c r="M521" s="60">
-        <v>0</v>
-      </c>
-      <c r="N521" s="60">
-        <v>0</v>
-      </c>
-      <c r="O521" s="60" t="s">
+      <c r="M521" s="59">
+        <v>0</v>
+      </c>
+      <c r="N521" s="59">
+        <v>0</v>
+      </c>
+      <c r="O521" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="60">
+      <c r="P521" s="59">
         <v>600</v>
       </c>
-      <c r="Q521" s="60" t="s">
+      <c r="Q521" s="59" t="s">
         <v>1985</v>
       </c>
-      <c r="R521" s="61" t="s">
+      <c r="R521" s="60" t="s">
         <v>1986</v>
       </c>
-      <c r="W521" s="60" t="s">
+      <c r="W521" s="59" t="s">
         <v>1987</v>
       </c>
-      <c r="X521" s="60">
+      <c r="X521" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="60">
+      <c r="Y521" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="60">
+      <c r="Z521" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="60">
+      <c r="AA521" s="59">
         <v>70</v>
       </c>
-      <c r="AH521" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="60">
-        <v>1</v>
-      </c>
-      <c r="G522" s="60" t="s">
+      <c r="F522" s="59">
+        <v>1</v>
+      </c>
+      <c r="G522" s="59" t="s">
         <v>1989</v>
       </c>
-      <c r="I522" s="60" t="s">
+      <c r="I522" s="59" t="s">
         <v>1990</v>
       </c>
-      <c r="J522" s="60" t="s">
+      <c r="J522" s="59" t="s">
         <v>1991</v>
       </c>
-      <c r="L522" s="60">
+      <c r="L522" s="59">
         <v>-33</v>
       </c>
-      <c r="M522" s="60">
-        <v>0</v>
-      </c>
-      <c r="N522" s="60">
-        <v>0</v>
-      </c>
-      <c r="O522" s="60" t="s">
+      <c r="M522" s="59">
+        <v>0</v>
+      </c>
+      <c r="N522" s="59">
+        <v>0</v>
+      </c>
+      <c r="O522" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="60">
+      <c r="P522" s="59">
         <v>1000</v>
       </c>
-      <c r="Q522" s="60" t="s">
+      <c r="Q522" s="59" t="s">
         <v>1993</v>
       </c>
-      <c r="R522" s="61" t="s">
+      <c r="R522" s="60" t="s">
         <v>1994</v>
       </c>
-      <c r="W522" s="60" t="s">
+      <c r="W522" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X522" s="60">
+      <c r="X522" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="60">
+      <c r="Y522" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="60">
+      <c r="Z522" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="60">
+      <c r="AA522" s="59">
         <v>70</v>
       </c>
-      <c r="AH522" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="60">
-        <v>1</v>
-      </c>
-      <c r="G523" s="60" t="s">
+      <c r="F523" s="59">
+        <v>1</v>
+      </c>
+      <c r="G523" s="59" t="s">
         <v>1996</v>
       </c>
-      <c r="I523" s="60" t="s">
+      <c r="I523" s="59" t="s">
         <v>1990</v>
       </c>
-      <c r="J523" s="60" t="s">
+      <c r="J523" s="59" t="s">
         <v>1997</v>
       </c>
-      <c r="L523" s="60">
+      <c r="L523" s="59">
         <v>-33</v>
       </c>
-      <c r="M523" s="60">
-        <v>0</v>
-      </c>
-      <c r="N523" s="60">
-        <v>0</v>
-      </c>
-      <c r="O523" s="60" t="s">
+      <c r="M523" s="59">
+        <v>0</v>
+      </c>
+      <c r="N523" s="59">
+        <v>0</v>
+      </c>
+      <c r="O523" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="60">
+      <c r="P523" s="59">
         <v>1800</v>
       </c>
-      <c r="Q523" s="60" t="s">
+      <c r="Q523" s="59" t="s">
         <v>1998</v>
       </c>
-      <c r="R523" s="61" t="s">
+      <c r="R523" s="60" t="s">
         <v>1999</v>
       </c>
-      <c r="W523" s="60" t="s">
+      <c r="W523" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X523" s="60">
+      <c r="X523" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="60">
+      <c r="Y523" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="60">
+      <c r="Z523" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="60">
+      <c r="AA523" s="59">
         <v>70</v>
       </c>
-      <c r="AH523" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="60">
-        <v>1</v>
-      </c>
-      <c r="G524" s="60" t="s">
+      <c r="F524" s="59">
+        <v>1</v>
+      </c>
+      <c r="G524" s="59" t="s">
         <v>2001</v>
       </c>
-      <c r="I524" s="60" t="s">
+      <c r="I524" s="59" t="s">
         <v>1983</v>
       </c>
-      <c r="J524" s="60" t="s">
+      <c r="J524" s="59" t="s">
         <v>2002</v>
       </c>
-      <c r="L524" s="60">
+      <c r="L524" s="59">
         <v>-33</v>
       </c>
-      <c r="M524" s="60">
-        <v>0</v>
-      </c>
-      <c r="N524" s="60">
-        <v>0</v>
-      </c>
-      <c r="O524" s="60" t="s">
+      <c r="M524" s="59">
+        <v>0</v>
+      </c>
+      <c r="N524" s="59">
+        <v>0</v>
+      </c>
+      <c r="O524" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="60">
+      <c r="P524" s="59">
         <v>4800</v>
       </c>
-      <c r="Q524" s="60" t="s">
+      <c r="Q524" s="59" t="s">
         <v>2003</v>
       </c>
-      <c r="R524" s="61" t="s">
+      <c r="R524" s="60" t="s">
         <v>2004</v>
       </c>
-      <c r="W524" s="60" t="s">
+      <c r="W524" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X524" s="60">
+      <c r="X524" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="60">
+      <c r="Y524" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="60">
+      <c r="Z524" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="60">
+      <c r="AA524" s="59">
         <v>70</v>
       </c>
-      <c r="AH524" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="50">
-        <v>1</v>
-      </c>
-      <c r="G525" s="50" t="s">
+      <c r="F525" s="49">
+        <v>1</v>
+      </c>
+      <c r="G525" s="49" t="s">
         <v>1981</v>
       </c>
-      <c r="I525" s="50" t="s">
+      <c r="I525" s="49" t="s">
         <v>2006</v>
       </c>
-      <c r="J525" s="50" t="s">
+      <c r="J525" s="49" t="s">
         <v>2007</v>
       </c>
-      <c r="L525" s="50">
+      <c r="L525" s="49">
         <v>-33</v>
       </c>
-      <c r="M525" s="50">
-        <v>0</v>
-      </c>
-      <c r="N525" s="50">
-        <v>0</v>
-      </c>
-      <c r="O525" s="50" t="s">
+      <c r="M525" s="49">
+        <v>0</v>
+      </c>
+      <c r="N525" s="49">
+        <v>0</v>
+      </c>
+      <c r="O525" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="50">
+      <c r="P525" s="49">
         <v>1800</v>
       </c>
-      <c r="Q525" s="50" t="s">
+      <c r="Q525" s="49" t="s">
         <v>2008</v>
       </c>
-      <c r="R525" s="51" t="s">
+      <c r="R525" s="50" t="s">
         <v>1999</v>
       </c>
-      <c r="W525" s="50" t="s">
+      <c r="W525" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="X525" s="50">
+      <c r="X525" s="49">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="50">
+      <c r="Y525" s="49">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="50">
+      <c r="Z525" s="49">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="50">
+      <c r="AA525" s="49">
         <v>71</v>
       </c>
-      <c r="AH525" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="50">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="50">
-        <v>1</v>
-      </c>
-      <c r="G526" s="50" t="s">
+      <c r="F526" s="49">
+        <v>1</v>
+      </c>
+      <c r="G526" s="49" t="s">
         <v>1988</v>
       </c>
-      <c r="I526" s="50" t="s">
+      <c r="I526" s="49" t="s">
         <v>2005</v>
       </c>
-      <c r="J526" s="50" t="s">
+      <c r="J526" s="49" t="s">
         <v>2009</v>
       </c>
-      <c r="L526" s="50">
+      <c r="L526" s="49">
         <v>-33</v>
       </c>
-      <c r="M526" s="50">
-        <v>0</v>
-      </c>
-      <c r="N526" s="50">
-        <v>0</v>
-      </c>
-      <c r="O526" s="50" t="s">
+      <c r="M526" s="49">
+        <v>0</v>
+      </c>
+      <c r="N526" s="49">
+        <v>0</v>
+      </c>
+      <c r="O526" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="50">
+      <c r="P526" s="49">
         <v>4800</v>
       </c>
-      <c r="Q526" s="50" t="s">
+      <c r="Q526" s="49" t="s">
         <v>1992</v>
       </c>
-      <c r="R526" s="51" t="s">
+      <c r="R526" s="50" t="s">
         <v>2011</v>
       </c>
-      <c r="W526" s="50" t="s">
+      <c r="W526" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="X526" s="50">
+      <c r="X526" s="49">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="50">
+      <c r="Y526" s="49">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="50">
+      <c r="Z526" s="49">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="50">
+      <c r="AA526" s="49">
         <v>71</v>
       </c>
-      <c r="AH526" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="50">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="50">
-        <v>1</v>
-      </c>
-      <c r="G527" s="50" t="s">
+      <c r="F527" s="49">
+        <v>1</v>
+      </c>
+      <c r="G527" s="49" t="s">
         <v>1995</v>
       </c>
-      <c r="I527" s="50" t="s">
+      <c r="I527" s="49" t="s">
         <v>2005</v>
       </c>
-      <c r="J527" s="50" t="s">
+      <c r="J527" s="49" t="s">
         <v>2012</v>
       </c>
-      <c r="L527" s="50">
+      <c r="L527" s="49">
         <v>-33</v>
       </c>
-      <c r="M527" s="50">
-        <v>0</v>
-      </c>
-      <c r="N527" s="50">
-        <v>0</v>
-      </c>
-      <c r="O527" s="50" t="s">
+      <c r="M527" s="49">
+        <v>0</v>
+      </c>
+      <c r="N527" s="49">
+        <v>0</v>
+      </c>
+      <c r="O527" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="50">
+      <c r="P527" s="49">
         <v>9800</v>
       </c>
-      <c r="Q527" s="50" t="s">
+      <c r="Q527" s="49" t="s">
         <v>2013</v>
       </c>
-      <c r="R527" s="51" t="s">
+      <c r="R527" s="50" t="s">
         <v>2014</v>
       </c>
-      <c r="W527" s="50" t="s">
+      <c r="W527" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="X527" s="50">
+      <c r="X527" s="49">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="50">
+      <c r="Y527" s="49">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="50">
+      <c r="Z527" s="49">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="50">
+      <c r="AA527" s="49">
         <v>71</v>
       </c>
-      <c r="AH527" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="50">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="50">
-        <v>1</v>
-      </c>
-      <c r="G528" s="50" t="s">
+      <c r="F528" s="49">
+        <v>1</v>
+      </c>
+      <c r="G528" s="49" t="s">
         <v>2000</v>
       </c>
-      <c r="I528" s="50" t="s">
+      <c r="I528" s="49" t="s">
         <v>2015</v>
       </c>
-      <c r="J528" s="50" t="s">
+      <c r="J528" s="49" t="s">
         <v>2016</v>
       </c>
-      <c r="L528" s="50">
+      <c r="L528" s="49">
         <v>-33</v>
       </c>
-      <c r="M528" s="50">
-        <v>0</v>
-      </c>
-      <c r="N528" s="50">
-        <v>0</v>
-      </c>
-      <c r="O528" s="50" t="s">
+      <c r="M528" s="49">
+        <v>0</v>
+      </c>
+      <c r="N528" s="49">
+        <v>0</v>
+      </c>
+      <c r="O528" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="50">
+      <c r="P528" s="49">
         <v>19800</v>
       </c>
-      <c r="Q528" s="50" t="s">
+      <c r="Q528" s="49" t="s">
         <v>2017</v>
       </c>
-      <c r="R528" s="51" t="s">
+      <c r="R528" s="50" t="s">
         <v>2018</v>
       </c>
-      <c r="W528" s="50" t="s">
+      <c r="W528" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="X528" s="50">
+      <c r="X528" s="49">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="50">
+      <c r="Y528" s="49">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="50">
+      <c r="Z528" s="49">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="50">
+      <c r="AA528" s="49">
         <v>71</v>
       </c>
-      <c r="AH528" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="50">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="60">
-        <v>1</v>
-      </c>
-      <c r="G529" s="60" t="s">
+      <c r="F529" s="59">
+        <v>1</v>
+      </c>
+      <c r="G529" s="59" t="s">
         <v>2019</v>
       </c>
-      <c r="I529" s="60" t="s">
+      <c r="I529" s="59" t="s">
         <v>2020</v>
       </c>
-      <c r="J529" s="60" t="s">
+      <c r="J529" s="59" t="s">
         <v>2021</v>
       </c>
-      <c r="L529" s="60">
+      <c r="L529" s="59">
         <v>-33</v>
       </c>
-      <c r="M529" s="60">
-        <v>0</v>
-      </c>
-      <c r="N529" s="60">
-        <v>0</v>
-      </c>
-      <c r="O529" s="60" t="s">
+      <c r="M529" s="59">
+        <v>0</v>
+      </c>
+      <c r="N529" s="59">
+        <v>0</v>
+      </c>
+      <c r="O529" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="60">
+      <c r="P529" s="59">
         <v>4800</v>
       </c>
-      <c r="Q529" s="60" t="s">
+      <c r="Q529" s="59" t="s">
         <v>2008</v>
       </c>
-      <c r="R529" s="61" t="s">
+      <c r="R529" s="60" t="s">
         <v>2010</v>
       </c>
-      <c r="W529" s="60" t="s">
+      <c r="W529" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X529" s="60">
+      <c r="X529" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="60">
+      <c r="Y529" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="60">
+      <c r="Z529" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="60">
+      <c r="AA529" s="59">
         <v>72</v>
       </c>
-      <c r="AH529" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="60">
-        <v>1</v>
-      </c>
-      <c r="G530" s="60" t="s">
+      <c r="F530" s="59">
+        <v>1</v>
+      </c>
+      <c r="G530" s="59" t="s">
         <v>1988</v>
       </c>
-      <c r="I530" s="60" t="s">
+      <c r="I530" s="59" t="s">
         <v>2022</v>
       </c>
-      <c r="J530" s="60" t="s">
+      <c r="J530" s="59" t="s">
         <v>2023</v>
       </c>
-      <c r="L530" s="60">
+      <c r="L530" s="59">
         <v>-33</v>
       </c>
-      <c r="M530" s="60">
-        <v>0</v>
-      </c>
-      <c r="N530" s="60">
-        <v>0</v>
-      </c>
-      <c r="O530" s="60" t="s">
+      <c r="M530" s="59">
+        <v>0</v>
+      </c>
+      <c r="N530" s="59">
+        <v>0</v>
+      </c>
+      <c r="O530" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="60">
+      <c r="P530" s="59">
         <v>9800</v>
       </c>
-      <c r="Q530" s="60" t="s">
+      <c r="Q530" s="59" t="s">
         <v>1993</v>
       </c>
-      <c r="R530" s="61" t="s">
+      <c r="R530" s="60" t="s">
         <v>2014</v>
       </c>
-      <c r="W530" s="60" t="s">
+      <c r="W530" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X530" s="60">
+      <c r="X530" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="60">
+      <c r="Y530" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="60">
+      <c r="Z530" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="60">
+      <c r="AA530" s="59">
         <v>72</v>
       </c>
-      <c r="AH530" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="60">
-        <v>1</v>
-      </c>
-      <c r="G531" s="60" t="s">
+      <c r="F531" s="59">
+        <v>1</v>
+      </c>
+      <c r="G531" s="59" t="s">
         <v>1996</v>
       </c>
-      <c r="I531" s="60" t="s">
+      <c r="I531" s="59" t="s">
         <v>2024</v>
       </c>
-      <c r="J531" s="60" t="s">
+      <c r="J531" s="59" t="s">
         <v>2025</v>
       </c>
-      <c r="L531" s="60">
+      <c r="L531" s="59">
         <v>-33</v>
       </c>
-      <c r="M531" s="60">
-        <v>0</v>
-      </c>
-      <c r="N531" s="60">
-        <v>0</v>
-      </c>
-      <c r="O531" s="60" t="s">
+      <c r="M531" s="59">
+        <v>0</v>
+      </c>
+      <c r="N531" s="59">
+        <v>0</v>
+      </c>
+      <c r="O531" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="60">
+      <c r="P531" s="59">
         <v>19800</v>
       </c>
-      <c r="Q531" s="60" t="s">
+      <c r="Q531" s="59" t="s">
         <v>2013</v>
       </c>
-      <c r="R531" s="61" t="s">
+      <c r="R531" s="60" t="s">
         <v>2026</v>
       </c>
-      <c r="W531" s="60" t="s">
+      <c r="W531" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X531" s="60">
+      <c r="X531" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="60">
+      <c r="Y531" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="60">
+      <c r="Z531" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="60">
+      <c r="AA531" s="59">
         <v>72</v>
       </c>
-      <c r="AH531" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="60">
-        <v>1</v>
-      </c>
-      <c r="G532" s="60" t="s">
+      <c r="F532" s="59">
+        <v>1</v>
+      </c>
+      <c r="G532" s="59" t="s">
         <v>2027</v>
       </c>
-      <c r="I532" s="60" t="s">
+      <c r="I532" s="59" t="s">
         <v>2020</v>
       </c>
-      <c r="J532" s="60" t="s">
+      <c r="J532" s="59" t="s">
         <v>2028</v>
       </c>
-      <c r="L532" s="60">
+      <c r="L532" s="59">
         <v>-33</v>
       </c>
-      <c r="M532" s="60">
-        <v>0</v>
-      </c>
-      <c r="N532" s="60">
-        <v>0</v>
-      </c>
-      <c r="O532" s="60" t="s">
+      <c r="M532" s="59">
+        <v>0</v>
+      </c>
+      <c r="N532" s="59">
+        <v>0</v>
+      </c>
+      <c r="O532" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="60">
+      <c r="P532" s="59">
         <v>49800</v>
       </c>
-      <c r="Q532" s="60" t="s">
+      <c r="Q532" s="59" t="s">
         <v>2017</v>
       </c>
-      <c r="R532" s="61" t="s">
+      <c r="R532" s="60" t="s">
         <v>2029</v>
       </c>
-      <c r="W532" s="60" t="s">
+      <c r="W532" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="X532" s="60">
+      <c r="X532" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="60">
+      <c r="Y532" s="59">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="60">
+      <c r="Z532" s="59">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="60">
+      <c r="AA532" s="59">
         <v>72</v>
       </c>
-      <c r="AH532" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="60">
+      <c r="AH532" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="59">
         <v>1</v>
       </c>
     </row>
@@ -45567,7 +45582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -46568,13 +46583,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="61" t="s">
         <v>2030</v>
       </c>
-      <c r="C71" s="63">
-        <v>1</v>
-      </c>
-      <c r="D71" s="63">
+      <c r="C71" s="62">
+        <v>1</v>
+      </c>
+      <c r="D71" s="62">
         <v>0</v>
       </c>
     </row>
@@ -46582,13 +46597,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="61" t="s">
         <v>2031</v>
       </c>
-      <c r="C72" s="63">
-        <v>1</v>
-      </c>
-      <c r="D72" s="63">
+      <c r="C72" s="62">
+        <v>1</v>
+      </c>
+      <c r="D72" s="62">
         <v>0</v>
       </c>
     </row>
@@ -46596,13 +46611,13 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="61" t="s">
         <v>2032</v>
       </c>
-      <c r="C73" s="63">
-        <v>1</v>
-      </c>
-      <c r="D73" s="63">
+      <c r="C73" s="62">
+        <v>1</v>
+      </c>
+      <c r="D73" s="62">
         <v>0</v>
       </c>
     </row>

--- a/config_1.19/shoping_config_xiaomi.xlsx
+++ b/config_1.19/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2034">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8137,10 +8137,6 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8153,17 +8149,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8171,490 +8159,504 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
     <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","2万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","80万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8849,7 +8851,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9049,6 +9051,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11506,10 +11514,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H498" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G507" sqref="G507"/>
+      <selection pane="bottomRight" activeCell="W504" sqref="W504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43189,11 +43197,11 @@
       <c r="Q497" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R497" s="10" t="s">
-        <v>1899</v>
-      </c>
-      <c r="W497" s="5" t="s">
-        <v>524</v>
+      <c r="R497" s="67" t="s">
+        <v>2021</v>
+      </c>
+      <c r="W497" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43231,13 +43239,13 @@
         <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I498" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="I498" s="5" t="s">
+      <c r="J498" s="5" t="s">
         <v>1901</v>
-      </c>
-      <c r="J498" s="5" t="s">
-        <v>1902</v>
       </c>
       <c r="L498" s="5">
         <v>-31</v>
@@ -43257,11 +43265,11 @@
       <c r="Q498" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R498" s="10" t="s">
-        <v>1903</v>
-      </c>
-      <c r="W498" s="5" t="s">
-        <v>524</v>
+      <c r="R498" s="67" t="s">
+        <v>2022</v>
+      </c>
+      <c r="W498" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43299,13 +43307,13 @@
         <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I499" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="J499" s="5" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="L499" s="5">
         <v>-31</v>
@@ -43325,11 +43333,11 @@
       <c r="Q499" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R499" s="10" t="s">
-        <v>1905</v>
-      </c>
-      <c r="W499" s="5" t="s">
-        <v>524</v>
+      <c r="R499" s="67" t="s">
+        <v>2023</v>
+      </c>
+      <c r="W499" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43370,10 +43378,10 @@
         <v>1894</v>
       </c>
       <c r="I500" s="5" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="J500" s="5" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="L500" s="5">
         <v>-31</v>
@@ -43385,7 +43393,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="5" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P500" s="5">
         <v>4800</v>
@@ -43393,11 +43401,11 @@
       <c r="Q500" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R500" s="10" t="s">
-        <v>1908</v>
-      </c>
-      <c r="W500" s="5" t="s">
-        <v>524</v>
+      <c r="R500" s="67" t="s">
+        <v>2024</v>
+      </c>
+      <c r="W500" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43435,13 +43443,13 @@
         <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I501" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="J501" s="5" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="L501" s="5">
         <v>-31</v>
@@ -43461,11 +43469,11 @@
       <c r="Q501" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R501" s="10" t="s">
-        <v>1910</v>
-      </c>
-      <c r="W501" s="5" t="s">
-        <v>524</v>
+      <c r="R501" s="67" t="s">
+        <v>2025</v>
+      </c>
+      <c r="W501" s="47" t="s">
+        <v>2032</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43503,13 +43511,13 @@
         <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I502" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="J502" s="5" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="L502" s="5">
         <v>-31</v>
@@ -43529,11 +43537,11 @@
       <c r="Q502" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R502" s="10" t="s">
-        <v>1913</v>
-      </c>
-      <c r="W502" s="5" t="s">
-        <v>524</v>
+      <c r="R502" s="67" t="s">
+        <v>2026</v>
+      </c>
+      <c r="W502" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43574,10 +43582,10 @@
         <v>1894</v>
       </c>
       <c r="I503" s="5" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J503" s="5" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="L503" s="5">
         <v>-31</v>
@@ -43595,13 +43603,13 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="5" t="s">
-        <v>1916</v>
-      </c>
-      <c r="R503" s="10" t="s">
-        <v>1917</v>
-      </c>
-      <c r="W503" s="5" t="s">
-        <v>524</v>
+        <v>1909</v>
+      </c>
+      <c r="R503" s="68" t="s">
+        <v>2027</v>
+      </c>
+      <c r="W503" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43642,10 +43650,10 @@
         <v>1893</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="L504" s="5">
         <v>-31</v>
@@ -43657,19 +43665,19 @@
         <v>0</v>
       </c>
       <c r="O504" s="5" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="P504" s="5">
         <v>19800</v>
       </c>
       <c r="Q504" s="5" t="s">
-        <v>1916</v>
-      </c>
-      <c r="R504" s="10" t="s">
-        <v>1919</v>
-      </c>
-      <c r="W504" s="5" t="s">
-        <v>524</v>
+        <v>1909</v>
+      </c>
+      <c r="R504" s="68" t="s">
+        <v>2022</v>
+      </c>
+      <c r="W504" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43710,10 +43718,10 @@
         <v>1894</v>
       </c>
       <c r="I505" s="5" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J505" s="5" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="L505" s="5">
         <v>-31</v>
@@ -43731,13 +43739,13 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1916</v>
-      </c>
-      <c r="R505" s="10" t="s">
-        <v>1921</v>
-      </c>
-      <c r="W505" s="5" t="s">
-        <v>524</v>
+        <v>1909</v>
+      </c>
+      <c r="R505" s="68" t="s">
+        <v>2028</v>
+      </c>
+      <c r="W505" s="47" t="s">
+        <v>2032</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43778,10 +43786,10 @@
         <v>1894</v>
       </c>
       <c r="I506" s="5" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="L506" s="5">
         <v>-31</v>
@@ -43799,13 +43807,13 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>1923</v>
-      </c>
-      <c r="R506" s="10" t="s">
-        <v>1924</v>
-      </c>
-      <c r="W506" s="5" t="s">
-        <v>524</v>
+        <v>1913</v>
+      </c>
+      <c r="R506" s="68" t="s">
+        <v>2029</v>
+      </c>
+      <c r="W506" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43843,13 +43851,13 @@
         <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I507" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J507" s="5" t="s">
         <v>1914</v>
-      </c>
-      <c r="J507" s="5" t="s">
-        <v>1925</v>
       </c>
       <c r="L507" s="5">
         <v>-31</v>
@@ -43867,13 +43875,13 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="5" t="s">
-        <v>1923</v>
-      </c>
-      <c r="R507" s="10" t="s">
-        <v>1926</v>
-      </c>
-      <c r="W507" s="5" t="s">
-        <v>524</v>
+        <v>1913</v>
+      </c>
+      <c r="R507" s="68" t="s">
+        <v>2030</v>
+      </c>
+      <c r="W507" s="47" t="s">
+        <v>2032</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43914,10 +43922,10 @@
         <v>1893</v>
       </c>
       <c r="I508" s="5" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
       <c r="J508" s="5" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
       <c r="L508" s="5">
         <v>-31</v>
@@ -43935,13 +43943,13 @@
         <v>600</v>
       </c>
       <c r="Q508" s="5" t="s">
-        <v>1923</v>
-      </c>
-      <c r="R508" s="10" t="s">
-        <v>1912</v>
-      </c>
-      <c r="W508" s="5" t="s">
-        <v>524</v>
+        <v>1913</v>
+      </c>
+      <c r="R508" s="68" t="s">
+        <v>2031</v>
+      </c>
+      <c r="W508" s="47" t="s">
+        <v>2033</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43979,10 +43987,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="63" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="J509" s="63" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="L509" s="63">
         <v>-4</v>
@@ -44016,10 +44024,10 @@
         <v>77</v>
       </c>
       <c r="AC509" s="63" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
       <c r="AD509" s="64" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
       <c r="AH509" s="63">
         <v>1</v>
@@ -44039,10 +44047,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="63" t="s">
-        <v>1935</v>
+        <v>1923</v>
       </c>
       <c r="J510" s="63" t="s">
-        <v>1936</v>
+        <v>1924</v>
       </c>
       <c r="L510" s="63">
         <v>-4</v>
@@ -44076,10 +44084,10 @@
         <v>77</v>
       </c>
       <c r="AC510" s="63" t="s">
-        <v>1937</v>
+        <v>1925</v>
       </c>
       <c r="AD510" s="64" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
       <c r="AH510" s="63">
         <v>1</v>
@@ -44099,10 +44107,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="63" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="J511" s="63" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="L511" s="63">
         <v>-4</v>
@@ -44136,10 +44144,10 @@
         <v>77</v>
       </c>
       <c r="AC511" s="63" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="AD511" s="64" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="AH511" s="63">
         <v>1</v>
@@ -44159,13 +44167,13 @@
         <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I512" s="5" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J512" s="5" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="L512" s="5">
         <v>-33</v>
@@ -44177,19 +44185,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P512" s="5">
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="R512" s="10" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="W512" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X512" s="5">
         <v>99999999</v>
@@ -44227,13 +44235,13 @@
         <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I513" s="5" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J513" s="5" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="L513" s="5">
         <v>-33</v>
@@ -44245,19 +44253,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P513" s="5">
         <v>19800</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="R513" s="10" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="W513" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X513" s="5">
         <v>99999999</v>
@@ -44295,13 +44303,13 @@
         <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I514" s="5" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="J514" s="5" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="L514" s="5">
         <v>-33</v>
@@ -44313,19 +44321,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P514" s="5">
         <v>9800</v>
       </c>
       <c r="Q514" s="5" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="R514" s="10" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="W514" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X514" s="5">
         <v>99999999</v>
@@ -44363,13 +44371,13 @@
         <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I515" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J515" s="5" t="s">
         <v>1943</v>
-      </c>
-      <c r="I515" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J515" s="5" t="s">
-        <v>1955</v>
       </c>
       <c r="L515" s="5">
         <v>-33</v>
@@ -44381,19 +44389,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P515" s="5">
         <v>4800</v>
       </c>
       <c r="Q515" s="5" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="R515" s="10" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="W515" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X515" s="5">
         <v>99999999</v>
@@ -44431,13 +44439,13 @@
         <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I516" s="5" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J516" s="5" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="L516" s="5">
         <v>-33</v>
@@ -44449,19 +44457,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P516" s="5">
         <v>49800</v>
       </c>
       <c r="Q516" s="5" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="R516" s="10" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="W516" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X516" s="5">
         <v>99999999</v>
@@ -44499,13 +44507,13 @@
         <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J517" s="5" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
       <c r="L517" s="5">
         <v>-33</v>
@@ -44517,19 +44525,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="5" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
       <c r="P517" s="5">
         <v>19800</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="R517" s="10" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X517" s="5">
         <v>99999999</v>
@@ -44567,13 +44575,13 @@
         <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
       <c r="L518" s="5">
         <v>-33</v>
@@ -44585,19 +44593,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P518" s="5">
         <v>9800</v>
       </c>
       <c r="Q518" s="5" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="R518" s="10" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="W518" s="5" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="X518" s="5">
         <v>99999999</v>
@@ -44635,13 +44643,13 @@
         <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="J519" s="5" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="L519" s="5">
         <v>-33</v>
@@ -44653,19 +44661,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="5" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="P519" s="5">
         <v>4800</v>
       </c>
       <c r="Q519" s="5" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="R519" s="10" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="W519" s="5" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="X519" s="5">
         <v>99999999</v>
@@ -44703,13 +44711,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="63" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="I520" s="63" t="s">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="J520" s="63" t="s">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="L520" s="63">
         <v>-23</v>
@@ -44727,16 +44735,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="63" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="R520" s="64" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="S520" s="63" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="W520" s="63" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
       <c r="X520" s="63">
         <v>99999999</v>
@@ -44765,13 +44773,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="59" t="s">
-        <v>1982</v>
+        <v>1970</v>
       </c>
       <c r="I521" s="59" t="s">
-        <v>1983</v>
+        <v>1971</v>
       </c>
       <c r="J521" s="59" t="s">
-        <v>1984</v>
+        <v>1972</v>
       </c>
       <c r="L521" s="59">
         <v>-33</v>
@@ -44789,13 +44797,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="59" t="s">
-        <v>1985</v>
+        <v>1973</v>
       </c>
       <c r="R521" s="60" t="s">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="W521" s="59" t="s">
-        <v>1987</v>
+        <v>1975</v>
       </c>
       <c r="X521" s="59">
         <v>99999999</v>
@@ -44833,13 +44841,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="59" t="s">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="I522" s="59" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="J522" s="59" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="L522" s="59">
         <v>-33</v>
@@ -44857,10 +44865,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="59" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="R522" s="60" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="W522" s="59" t="s">
         <v>1100</v>
@@ -44901,13 +44909,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="59" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="I523" s="59" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="J523" s="59" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="L523" s="59">
         <v>-33</v>
@@ -44925,10 +44933,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="59" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="R523" s="60" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="W523" s="59" t="s">
         <v>1100</v>
@@ -44969,13 +44977,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="59" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="I524" s="59" t="s">
-        <v>1983</v>
+        <v>1971</v>
       </c>
       <c r="J524" s="59" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="L524" s="59">
         <v>-33</v>
@@ -44993,10 +45001,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="59" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="R524" s="60" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="W524" s="59" t="s">
         <v>1100</v>
@@ -45037,13 +45045,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="49" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="I525" s="49" t="s">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="J525" s="49" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="L525" s="49">
         <v>-33</v>
@@ -45061,10 +45069,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="49" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="R525" s="50" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="W525" s="49" t="s">
         <v>1100</v>
@@ -45105,13 +45113,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="49" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="I526" s="49" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="J526" s="49" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="L526" s="49">
         <v>-33</v>
@@ -45129,10 +45137,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="49" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="R526" s="50" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="W526" s="49" t="s">
         <v>1100</v>
@@ -45173,13 +45181,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="49" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="I527" s="49" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="J527" s="49" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="L527" s="49">
         <v>-33</v>
@@ -45197,10 +45205,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="49" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="R527" s="50" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="W527" s="49" t="s">
         <v>1100</v>
@@ -45241,13 +45249,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="49" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="I528" s="49" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="J528" s="49" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="L528" s="49">
         <v>-33</v>
@@ -45265,10 +45273,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="49" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="R528" s="50" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="W528" s="49" t="s">
         <v>1100</v>
@@ -45309,13 +45317,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="59" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="I529" s="59" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="J529" s="59" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="L529" s="59">
         <v>-33</v>
@@ -45333,10 +45341,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="59" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="R529" s="60" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="W529" s="59" t="s">
         <v>1100</v>
@@ -45377,13 +45385,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="59" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="I530" s="59" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="J530" s="59" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="L530" s="59">
         <v>-33</v>
@@ -45401,10 +45409,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="59" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="R530" s="60" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="W530" s="59" t="s">
         <v>1100</v>
@@ -45445,13 +45453,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="59" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="I531" s="59" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="J531" s="59" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="L531" s="59">
         <v>-33</v>
@@ -45469,10 +45477,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="59" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="R531" s="60" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
       <c r="W531" s="59" t="s">
         <v>1100</v>
@@ -45513,13 +45521,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="59" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="I532" s="59" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="J532" s="59" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
       <c r="L532" s="59">
         <v>-33</v>
@@ -45537,10 +45545,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="59" t="s">
+        <v>2005</v>
+      </c>
+      <c r="R532" s="60" t="s">
         <v>2017</v>
-      </c>
-      <c r="R532" s="60" t="s">
-        <v>2029</v>
       </c>
       <c r="W532" s="59" t="s">
         <v>1100</v>
@@ -46528,7 +46536,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -46542,7 +46550,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
@@ -46556,7 +46564,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -46570,7 +46578,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
@@ -46584,7 +46592,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="C71" s="62">
         <v>1</v>
@@ -46598,7 +46606,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="C72" s="62">
         <v>1</v>
@@ -46612,7 +46620,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>2032</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="62">
         <v>1</v>
